--- a/Training Data.xlsx
+++ b/Training Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7d3d98d0292b98f/003. ML Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad/Downloads/Interview ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="843" documentId="8_{B7F5A4CC-6C9E-4990-B7DA-7C04061484D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2BE372-D2EA-40CB-80AF-E6475357F7CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0EF594-DFC0-AD4D-8C41-072B12989F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9C0A218C-34AF-488E-A59F-46B662FC17C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9C0A218C-34AF-488E-A59F-46B662FC17C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$U$501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7025" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7526" uniqueCount="592">
   <si>
     <t>Result</t>
   </si>
@@ -1804,6 +1804,15 @@
   </si>
   <si>
     <t>Joined inferior competition at a higher level</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Interviewer Efficiency</t>
   </si>
 </sst>
 </file>
@@ -2173,35 +2182,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0197021C-0580-4F02-AC55-609F9C3CF3C1}">
   <dimension ref="A1:U501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" customWidth="1"/>
-    <col min="6" max="6" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.06640625" customWidth="1"/>
-    <col min="19" max="19" width="23.06640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2254,16 +2262,19 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2316,13 +2327,16 @@
         <v>569</v>
       </c>
       <c r="R2" t="s">
+        <v>589</v>
+      </c>
+      <c r="S2" t="s">
         <v>571</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2375,13 +2389,16 @@
         <v>569</v>
       </c>
       <c r="R3" t="s">
+        <v>590</v>
+      </c>
+      <c r="S3" t="s">
         <v>572</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2434,13 +2451,16 @@
         <v>569</v>
       </c>
       <c r="R4" t="s">
+        <v>589</v>
+      </c>
+      <c r="S4" t="s">
         <v>571</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2493,13 +2513,16 @@
         <v>570</v>
       </c>
       <c r="R5" t="s">
+        <v>589</v>
+      </c>
+      <c r="S5" t="s">
         <v>572</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2552,13 +2575,16 @@
         <v>569</v>
       </c>
       <c r="R6" t="s">
+        <v>590</v>
+      </c>
+      <c r="S6" t="s">
         <v>572</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2611,13 +2637,16 @@
         <v>570</v>
       </c>
       <c r="R7" t="s">
+        <v>589</v>
+      </c>
+      <c r="S7" t="s">
         <v>572</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2670,13 +2699,16 @@
         <v>570</v>
       </c>
       <c r="R8" t="s">
+        <v>589</v>
+      </c>
+      <c r="S8" t="s">
         <v>571</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2729,13 +2761,16 @@
         <v>569</v>
       </c>
       <c r="R9" t="s">
+        <v>590</v>
+      </c>
+      <c r="S9" t="s">
         <v>572</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2788,13 +2823,16 @@
         <v>569</v>
       </c>
       <c r="R10" t="s">
+        <v>589</v>
+      </c>
+      <c r="S10" t="s">
         <v>571</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2847,13 +2885,16 @@
         <v>570</v>
       </c>
       <c r="R11" t="s">
+        <v>590</v>
+      </c>
+      <c r="S11" t="s">
         <v>571</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2906,13 +2947,16 @@
         <v>569</v>
       </c>
       <c r="R12" t="s">
+        <v>589</v>
+      </c>
+      <c r="S12" t="s">
         <v>571</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2965,13 +3009,16 @@
         <v>570</v>
       </c>
       <c r="R13" t="s">
+        <v>590</v>
+      </c>
+      <c r="S13" t="s">
         <v>572</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3024,13 +3071,16 @@
         <v>569</v>
       </c>
       <c r="R14" t="s">
+        <v>589</v>
+      </c>
+      <c r="S14" t="s">
         <v>571</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3083,13 +3133,16 @@
         <v>569</v>
       </c>
       <c r="R15" t="s">
+        <v>590</v>
+      </c>
+      <c r="S15" t="s">
         <v>572</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3142,13 +3195,16 @@
         <v>570</v>
       </c>
       <c r="R16" t="s">
+        <v>589</v>
+      </c>
+      <c r="S16" t="s">
         <v>572</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3201,13 +3257,16 @@
         <v>569</v>
       </c>
       <c r="R17" t="s">
+        <v>589</v>
+      </c>
+      <c r="S17" t="s">
         <v>572</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3260,13 +3319,16 @@
         <v>570</v>
       </c>
       <c r="R18" t="s">
+        <v>590</v>
+      </c>
+      <c r="S18" t="s">
         <v>571</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3319,13 +3381,16 @@
         <v>569</v>
       </c>
       <c r="R19" t="s">
+        <v>589</v>
+      </c>
+      <c r="S19" t="s">
         <v>571</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3378,13 +3443,16 @@
         <v>569</v>
       </c>
       <c r="R20" t="s">
+        <v>590</v>
+      </c>
+      <c r="S20" t="s">
         <v>572</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3437,13 +3505,16 @@
         <v>569</v>
       </c>
       <c r="R21" t="s">
+        <v>589</v>
+      </c>
+      <c r="S21" t="s">
         <v>571</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3496,13 +3567,16 @@
         <v>570</v>
       </c>
       <c r="R22" t="s">
+        <v>590</v>
+      </c>
+      <c r="S22" t="s">
         <v>572</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3555,13 +3629,16 @@
         <v>569</v>
       </c>
       <c r="R23" t="s">
+        <v>589</v>
+      </c>
+      <c r="S23" t="s">
         <v>571</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3614,13 +3691,16 @@
         <v>570</v>
       </c>
       <c r="R24" t="s">
+        <v>590</v>
+      </c>
+      <c r="S24" t="s">
         <v>572</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3673,13 +3753,16 @@
         <v>569</v>
       </c>
       <c r="R25" t="s">
+        <v>589</v>
+      </c>
+      <c r="S25" t="s">
         <v>571</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3732,13 +3815,16 @@
         <v>569</v>
       </c>
       <c r="R26" t="s">
+        <v>589</v>
+      </c>
+      <c r="S26" t="s">
         <v>572</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3791,13 +3877,16 @@
         <v>569</v>
       </c>
       <c r="R27" t="s">
+        <v>589</v>
+      </c>
+      <c r="S27" t="s">
         <v>571</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3850,13 +3939,16 @@
         <v>570</v>
       </c>
       <c r="R28" t="s">
+        <v>589</v>
+      </c>
+      <c r="S28" t="s">
         <v>572</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3909,13 +4001,16 @@
         <v>570</v>
       </c>
       <c r="R29" t="s">
+        <v>589</v>
+      </c>
+      <c r="S29" t="s">
         <v>572</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3968,13 +4063,16 @@
         <v>569</v>
       </c>
       <c r="R30" t="s">
+        <v>590</v>
+      </c>
+      <c r="S30" t="s">
         <v>572</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4027,13 +4125,16 @@
         <v>569</v>
       </c>
       <c r="R31" t="s">
+        <v>589</v>
+      </c>
+      <c r="S31" t="s">
         <v>571</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -4086,13 +4187,16 @@
         <v>569</v>
       </c>
       <c r="R32" t="s">
+        <v>590</v>
+      </c>
+      <c r="S32" t="s">
         <v>572</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4145,13 +4249,16 @@
         <v>569</v>
       </c>
       <c r="R33" t="s">
+        <v>590</v>
+      </c>
+      <c r="S33" t="s">
         <v>572</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -4204,13 +4311,16 @@
         <v>570</v>
       </c>
       <c r="R34" t="s">
+        <v>589</v>
+      </c>
+      <c r="S34" t="s">
         <v>572</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -4263,13 +4373,16 @@
         <v>569</v>
       </c>
       <c r="R35" t="s">
+        <v>589</v>
+      </c>
+      <c r="S35" t="s">
         <v>572</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -4322,13 +4435,16 @@
         <v>569</v>
       </c>
       <c r="R36" t="s">
+        <v>590</v>
+      </c>
+      <c r="S36" t="s">
         <v>572</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -4381,13 +4497,16 @@
         <v>569</v>
       </c>
       <c r="R37" t="s">
+        <v>589</v>
+      </c>
+      <c r="S37" t="s">
         <v>571</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -4440,13 +4559,16 @@
         <v>569</v>
       </c>
       <c r="R38" t="s">
+        <v>590</v>
+      </c>
+      <c r="S38" t="s">
         <v>572</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -4499,13 +4621,16 @@
         <v>569</v>
       </c>
       <c r="R39" t="s">
+        <v>589</v>
+      </c>
+      <c r="S39" t="s">
         <v>572</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -4558,13 +4683,16 @@
         <v>569</v>
       </c>
       <c r="R40" t="s">
+        <v>589</v>
+      </c>
+      <c r="S40" t="s">
         <v>571</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -4617,13 +4745,16 @@
         <v>569</v>
       </c>
       <c r="R41" t="s">
+        <v>589</v>
+      </c>
+      <c r="S41" t="s">
         <v>572</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4676,13 +4807,16 @@
         <v>569</v>
       </c>
       <c r="R42" t="s">
+        <v>589</v>
+      </c>
+      <c r="S42" t="s">
         <v>572</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -4735,13 +4869,16 @@
         <v>570</v>
       </c>
       <c r="R43" t="s">
+        <v>589</v>
+      </c>
+      <c r="S43" t="s">
         <v>571</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4794,13 +4931,16 @@
         <v>570</v>
       </c>
       <c r="R44" t="s">
+        <v>589</v>
+      </c>
+      <c r="S44" t="s">
         <v>571</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -4853,13 +4993,16 @@
         <v>570</v>
       </c>
       <c r="R45" t="s">
+        <v>589</v>
+      </c>
+      <c r="S45" t="s">
         <v>571</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4912,13 +5055,16 @@
         <v>569</v>
       </c>
       <c r="R46" t="s">
+        <v>589</v>
+      </c>
+      <c r="S46" t="s">
         <v>572</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -4971,13 +5117,16 @@
         <v>569</v>
       </c>
       <c r="R47" t="s">
+        <v>590</v>
+      </c>
+      <c r="S47" t="s">
         <v>572</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -5030,13 +5179,16 @@
         <v>569</v>
       </c>
       <c r="R48" t="s">
+        <v>589</v>
+      </c>
+      <c r="S48" t="s">
         <v>572</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -5089,13 +5241,16 @@
         <v>570</v>
       </c>
       <c r="R49" t="s">
+        <v>589</v>
+      </c>
+      <c r="S49" t="s">
         <v>571</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -5148,13 +5303,16 @@
         <v>570</v>
       </c>
       <c r="R50" t="s">
+        <v>590</v>
+      </c>
+      <c r="S50" t="s">
         <v>571</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -5207,13 +5365,16 @@
         <v>569</v>
       </c>
       <c r="R51" t="s">
+        <v>590</v>
+      </c>
+      <c r="S51" t="s">
         <v>572</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -5266,13 +5427,16 @@
         <v>569</v>
       </c>
       <c r="R52" t="s">
+        <v>589</v>
+      </c>
+      <c r="S52" t="s">
         <v>571</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -5325,13 +5489,16 @@
         <v>569</v>
       </c>
       <c r="R53" t="s">
+        <v>589</v>
+      </c>
+      <c r="S53" t="s">
         <v>571</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -5384,13 +5551,16 @@
         <v>569</v>
       </c>
       <c r="R54" t="s">
+        <v>589</v>
+      </c>
+      <c r="S54" t="s">
         <v>571</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5443,13 +5613,16 @@
         <v>570</v>
       </c>
       <c r="R55" t="s">
+        <v>590</v>
+      </c>
+      <c r="S55" t="s">
         <v>572</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5502,13 +5675,16 @@
         <v>569</v>
       </c>
       <c r="R56" t="s">
+        <v>589</v>
+      </c>
+      <c r="S56" t="s">
         <v>572</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5561,13 +5737,16 @@
         <v>570</v>
       </c>
       <c r="R57" t="s">
+        <v>590</v>
+      </c>
+      <c r="S57" t="s">
         <v>571</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5620,13 +5799,16 @@
         <v>570</v>
       </c>
       <c r="R58" t="s">
+        <v>590</v>
+      </c>
+      <c r="S58" t="s">
         <v>572</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5679,13 +5861,16 @@
         <v>569</v>
       </c>
       <c r="R59" t="s">
+        <v>590</v>
+      </c>
+      <c r="S59" t="s">
         <v>571</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -5738,13 +5923,16 @@
         <v>569</v>
       </c>
       <c r="R60" t="s">
+        <v>590</v>
+      </c>
+      <c r="S60" t="s">
         <v>572</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -5797,13 +5985,16 @@
         <v>570</v>
       </c>
       <c r="R61" t="s">
+        <v>589</v>
+      </c>
+      <c r="S61" t="s">
         <v>571</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -5856,13 +6047,16 @@
         <v>569</v>
       </c>
       <c r="R62" t="s">
+        <v>589</v>
+      </c>
+      <c r="S62" t="s">
         <v>571</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -5915,13 +6109,16 @@
         <v>570</v>
       </c>
       <c r="R63" t="s">
+        <v>590</v>
+      </c>
+      <c r="S63" t="s">
         <v>572</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -5974,13 +6171,16 @@
         <v>569</v>
       </c>
       <c r="R64" t="s">
+        <v>589</v>
+      </c>
+      <c r="S64" t="s">
         <v>572</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -6033,13 +6233,16 @@
         <v>569</v>
       </c>
       <c r="R65" t="s">
+        <v>590</v>
+      </c>
+      <c r="S65" t="s">
         <v>572</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -6092,13 +6295,16 @@
         <v>570</v>
       </c>
       <c r="R66" t="s">
+        <v>589</v>
+      </c>
+      <c r="S66" t="s">
         <v>571</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -6151,13 +6357,16 @@
         <v>569</v>
       </c>
       <c r="R67" t="s">
+        <v>590</v>
+      </c>
+      <c r="S67" t="s">
         <v>572</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -6210,13 +6419,16 @@
         <v>570</v>
       </c>
       <c r="R68" t="s">
+        <v>590</v>
+      </c>
+      <c r="S68" t="s">
         <v>572</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -6269,13 +6481,16 @@
         <v>569</v>
       </c>
       <c r="R69" t="s">
+        <v>589</v>
+      </c>
+      <c r="S69" t="s">
         <v>571</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -6328,13 +6543,16 @@
         <v>569</v>
       </c>
       <c r="R70" t="s">
+        <v>590</v>
+      </c>
+      <c r="S70" t="s">
         <v>571</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -6387,13 +6605,16 @@
         <v>569</v>
       </c>
       <c r="R71" t="s">
+        <v>590</v>
+      </c>
+      <c r="S71" t="s">
         <v>572</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -6446,13 +6667,16 @@
         <v>570</v>
       </c>
       <c r="R72" t="s">
+        <v>589</v>
+      </c>
+      <c r="S72" t="s">
         <v>571</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -6505,13 +6729,16 @@
         <v>569</v>
       </c>
       <c r="R73" t="s">
+        <v>589</v>
+      </c>
+      <c r="S73" t="s">
         <v>571</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -6564,13 +6791,16 @@
         <v>570</v>
       </c>
       <c r="R74" t="s">
+        <v>590</v>
+      </c>
+      <c r="S74" t="s">
         <v>571</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -6623,13 +6853,16 @@
         <v>569</v>
       </c>
       <c r="R75" t="s">
+        <v>589</v>
+      </c>
+      <c r="S75" t="s">
         <v>571</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -6682,13 +6915,16 @@
         <v>569</v>
       </c>
       <c r="R76" t="s">
+        <v>590</v>
+      </c>
+      <c r="S76" t="s">
         <v>572</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -6741,13 +6977,16 @@
         <v>569</v>
       </c>
       <c r="R77" t="s">
+        <v>589</v>
+      </c>
+      <c r="S77" t="s">
         <v>571</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -6800,13 +7039,16 @@
         <v>570</v>
       </c>
       <c r="R78" t="s">
+        <v>589</v>
+      </c>
+      <c r="S78" t="s">
         <v>572</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -6859,13 +7101,16 @@
         <v>570</v>
       </c>
       <c r="R79" t="s">
+        <v>589</v>
+      </c>
+      <c r="S79" t="s">
         <v>572</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -6918,13 +7163,16 @@
         <v>569</v>
       </c>
       <c r="R80" t="s">
+        <v>589</v>
+      </c>
+      <c r="S80" t="s">
         <v>572</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -6977,13 +7225,16 @@
         <v>569</v>
       </c>
       <c r="R81" t="s">
+        <v>589</v>
+      </c>
+      <c r="S81" t="s">
         <v>571</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -7036,13 +7287,16 @@
         <v>569</v>
       </c>
       <c r="R82" t="s">
+        <v>590</v>
+      </c>
+      <c r="S82" t="s">
         <v>572</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -7095,13 +7349,16 @@
         <v>569</v>
       </c>
       <c r="R83" t="s">
+        <v>589</v>
+      </c>
+      <c r="S83" t="s">
         <v>572</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -7154,13 +7411,16 @@
         <v>570</v>
       </c>
       <c r="R84" t="s">
+        <v>589</v>
+      </c>
+      <c r="S84" t="s">
         <v>572</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -7213,13 +7473,16 @@
         <v>569</v>
       </c>
       <c r="R85" t="s">
+        <v>589</v>
+      </c>
+      <c r="S85" t="s">
         <v>572</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -7272,13 +7535,16 @@
         <v>569</v>
       </c>
       <c r="R86" t="s">
+        <v>589</v>
+      </c>
+      <c r="S86" t="s">
         <v>572</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -7331,13 +7597,16 @@
         <v>569</v>
       </c>
       <c r="R87" t="s">
+        <v>589</v>
+      </c>
+      <c r="S87" t="s">
         <v>571</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7390,13 +7659,16 @@
         <v>569</v>
       </c>
       <c r="R88" t="s">
+        <v>590</v>
+      </c>
+      <c r="S88" t="s">
         <v>572</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -7449,13 +7721,16 @@
         <v>569</v>
       </c>
       <c r="R89" t="s">
+        <v>589</v>
+      </c>
+      <c r="S89" t="s">
         <v>572</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -7508,13 +7783,16 @@
         <v>569</v>
       </c>
       <c r="R90" t="s">
+        <v>589</v>
+      </c>
+      <c r="S90" t="s">
         <v>571</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -7567,13 +7845,16 @@
         <v>569</v>
       </c>
       <c r="R91" t="s">
+        <v>589</v>
+      </c>
+      <c r="S91" t="s">
         <v>572</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -7626,13 +7907,16 @@
         <v>569</v>
       </c>
       <c r="R92" t="s">
+        <v>589</v>
+      </c>
+      <c r="S92" t="s">
         <v>571</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -7685,13 +7969,16 @@
         <v>570</v>
       </c>
       <c r="R93" t="s">
+        <v>590</v>
+      </c>
+      <c r="S93" t="s">
         <v>571</v>
       </c>
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -7744,13 +8031,16 @@
         <v>570</v>
       </c>
       <c r="R94" t="s">
+        <v>589</v>
+      </c>
+      <c r="S94" t="s">
         <v>572</v>
       </c>
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -7803,13 +8093,16 @@
         <v>570</v>
       </c>
       <c r="R95" t="s">
+        <v>590</v>
+      </c>
+      <c r="S95" t="s">
         <v>571</v>
       </c>
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -7862,13 +8155,16 @@
         <v>569</v>
       </c>
       <c r="R96" t="s">
+        <v>590</v>
+      </c>
+      <c r="S96" t="s">
         <v>572</v>
       </c>
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -7921,13 +8217,16 @@
         <v>569</v>
       </c>
       <c r="R97" t="s">
+        <v>590</v>
+      </c>
+      <c r="S97" t="s">
         <v>571</v>
       </c>
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -7980,13 +8279,16 @@
         <v>569</v>
       </c>
       <c r="R98" t="s">
+        <v>590</v>
+      </c>
+      <c r="S98" t="s">
         <v>572</v>
       </c>
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -8039,13 +8341,16 @@
         <v>570</v>
       </c>
       <c r="R99" t="s">
+        <v>590</v>
+      </c>
+      <c r="S99" t="s">
         <v>571</v>
       </c>
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -8098,13 +8403,16 @@
         <v>570</v>
       </c>
       <c r="R100" t="s">
+        <v>590</v>
+      </c>
+      <c r="S100" t="s">
         <v>571</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -8157,13 +8465,16 @@
         <v>569</v>
       </c>
       <c r="R101" t="s">
+        <v>590</v>
+      </c>
+      <c r="S101" t="s">
         <v>572</v>
       </c>
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -8216,13 +8527,16 @@
         <v>569</v>
       </c>
       <c r="R102" t="s">
+        <v>589</v>
+      </c>
+      <c r="S102" t="s">
         <v>572</v>
       </c>
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -8275,13 +8589,16 @@
         <v>569</v>
       </c>
       <c r="R103" t="s">
+        <v>590</v>
+      </c>
+      <c r="S103" t="s">
         <v>571</v>
       </c>
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -8334,13 +8651,16 @@
         <v>569</v>
       </c>
       <c r="R104" t="s">
+        <v>590</v>
+      </c>
+      <c r="S104" t="s">
         <v>571</v>
       </c>
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -8393,13 +8713,16 @@
         <v>570</v>
       </c>
       <c r="R105" t="s">
+        <v>590</v>
+      </c>
+      <c r="S105" t="s">
         <v>572</v>
       </c>
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -8452,13 +8775,16 @@
         <v>569</v>
       </c>
       <c r="R106" t="s">
+        <v>589</v>
+      </c>
+      <c r="S106" t="s">
         <v>572</v>
       </c>
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -8511,16 +8837,19 @@
         <v>570</v>
       </c>
       <c r="R107" t="s">
+        <v>590</v>
+      </c>
+      <c r="S107" t="s">
         <v>571</v>
       </c>
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>577</v>
       </c>
       <c r="U107" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -8573,16 +8902,19 @@
         <v>570</v>
       </c>
       <c r="R108" t="s">
+        <v>589</v>
+      </c>
+      <c r="S108" t="s">
         <v>571</v>
       </c>
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>577</v>
       </c>
       <c r="U108" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -8635,16 +8967,19 @@
         <v>569</v>
       </c>
       <c r="R109" t="s">
+        <v>590</v>
+      </c>
+      <c r="S109" t="s">
         <v>571</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>577</v>
       </c>
       <c r="U109" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -8697,16 +9032,19 @@
         <v>569</v>
       </c>
       <c r="R110" t="s">
+        <v>590</v>
+      </c>
+      <c r="S110" t="s">
         <v>571</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>577</v>
       </c>
       <c r="U110" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -8759,16 +9097,19 @@
         <v>570</v>
       </c>
       <c r="R111" t="s">
+        <v>590</v>
+      </c>
+      <c r="S111" t="s">
         <v>571</v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" t="s">
         <v>576</v>
       </c>
       <c r="U111" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -8821,13 +9162,16 @@
         <v>569</v>
       </c>
       <c r="R112" t="s">
+        <v>589</v>
+      </c>
+      <c r="S112" t="s">
         <v>572</v>
       </c>
-      <c r="T112" t="s">
+      <c r="U112" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -8880,13 +9224,16 @@
         <v>570</v>
       </c>
       <c r="R113" t="s">
+        <v>590</v>
+      </c>
+      <c r="S113" t="s">
         <v>572</v>
       </c>
-      <c r="T113" t="s">
+      <c r="U113" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -8939,13 +9286,16 @@
         <v>569</v>
       </c>
       <c r="R114" t="s">
+        <v>590</v>
+      </c>
+      <c r="S114" t="s">
         <v>572</v>
       </c>
-      <c r="T114" t="s">
+      <c r="U114" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -8998,13 +9348,16 @@
         <v>569</v>
       </c>
       <c r="R115" t="s">
+        <v>590</v>
+      </c>
+      <c r="S115" t="s">
         <v>572</v>
       </c>
-      <c r="T115" t="s">
+      <c r="U115" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -9057,13 +9410,16 @@
         <v>570</v>
       </c>
       <c r="R116" t="s">
+        <v>590</v>
+      </c>
+      <c r="S116" t="s">
         <v>571</v>
       </c>
-      <c r="S116" t="s">
+      <c r="T116" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -9116,13 +9472,16 @@
         <v>569</v>
       </c>
       <c r="R117" t="s">
+        <v>590</v>
+      </c>
+      <c r="S117" t="s">
         <v>572</v>
       </c>
-      <c r="T117" t="s">
+      <c r="U117" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -9175,13 +9534,16 @@
         <v>570</v>
       </c>
       <c r="R118" t="s">
+        <v>590</v>
+      </c>
+      <c r="S118" t="s">
         <v>571</v>
       </c>
-      <c r="S118" t="s">
+      <c r="T118" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -9234,13 +9596,16 @@
         <v>569</v>
       </c>
       <c r="R119" t="s">
+        <v>590</v>
+      </c>
+      <c r="S119" t="s">
         <v>571</v>
       </c>
-      <c r="S119" t="s">
+      <c r="T119" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -9293,13 +9658,16 @@
         <v>569</v>
       </c>
       <c r="R120" t="s">
+        <v>590</v>
+      </c>
+      <c r="S120" t="s">
         <v>571</v>
       </c>
-      <c r="S120" t="s">
+      <c r="T120" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -9352,13 +9720,16 @@
         <v>569</v>
       </c>
       <c r="R121" t="s">
+        <v>589</v>
+      </c>
+      <c r="S121" t="s">
         <v>571</v>
       </c>
-      <c r="S121" t="s">
+      <c r="T121" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -9411,13 +9782,16 @@
         <v>570</v>
       </c>
       <c r="R122" t="s">
+        <v>589</v>
+      </c>
+      <c r="S122" t="s">
         <v>571</v>
       </c>
-      <c r="S122" t="s">
+      <c r="T122" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -9470,13 +9844,16 @@
         <v>569</v>
       </c>
       <c r="R123" t="s">
+        <v>590</v>
+      </c>
+      <c r="S123" t="s">
         <v>572</v>
       </c>
-      <c r="T123" t="s">
+      <c r="U123" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -9529,13 +9906,16 @@
         <v>570</v>
       </c>
       <c r="R124" t="s">
+        <v>589</v>
+      </c>
+      <c r="S124" t="s">
         <v>572</v>
       </c>
-      <c r="T124" t="s">
+      <c r="U124" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -9588,13 +9968,16 @@
         <v>569</v>
       </c>
       <c r="R125" t="s">
+        <v>590</v>
+      </c>
+      <c r="S125" t="s">
         <v>572</v>
       </c>
-      <c r="T125" t="s">
+      <c r="U125" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -9647,13 +10030,16 @@
         <v>569</v>
       </c>
       <c r="R126" t="s">
+        <v>589</v>
+      </c>
+      <c r="S126" t="s">
         <v>571</v>
       </c>
-      <c r="S126" t="s">
+      <c r="T126" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -9706,13 +10092,16 @@
         <v>569</v>
       </c>
       <c r="R127" t="s">
+        <v>589</v>
+      </c>
+      <c r="S127" t="s">
         <v>571</v>
       </c>
-      <c r="S127" t="s">
+      <c r="T127" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -9765,13 +10154,16 @@
         <v>570</v>
       </c>
       <c r="R128" t="s">
+        <v>590</v>
+      </c>
+      <c r="S128" t="s">
         <v>572</v>
       </c>
-      <c r="T128" t="s">
+      <c r="U128" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -9824,13 +10216,16 @@
         <v>570</v>
       </c>
       <c r="R129" t="s">
+        <v>590</v>
+      </c>
+      <c r="S129" t="s">
         <v>572</v>
       </c>
-      <c r="T129" t="s">
+      <c r="U129" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -9883,13 +10278,16 @@
         <v>569</v>
       </c>
       <c r="R130" t="s">
+        <v>589</v>
+      </c>
+      <c r="S130" t="s">
         <v>572</v>
       </c>
-      <c r="T130" t="s">
+      <c r="U130" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -9942,13 +10340,16 @@
         <v>569</v>
       </c>
       <c r="R131" t="s">
+        <v>590</v>
+      </c>
+      <c r="S131" t="s">
         <v>572</v>
       </c>
-      <c r="T131" t="s">
+      <c r="U131" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -10001,13 +10402,16 @@
         <v>569</v>
       </c>
       <c r="R132" t="s">
+        <v>590</v>
+      </c>
+      <c r="S132" t="s">
         <v>571</v>
       </c>
-      <c r="S132" t="s">
+      <c r="T132" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -10060,13 +10464,16 @@
         <v>569</v>
       </c>
       <c r="R133" t="s">
+        <v>590</v>
+      </c>
+      <c r="S133" t="s">
         <v>572</v>
       </c>
-      <c r="T133" t="s">
+      <c r="U133" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -10119,13 +10526,16 @@
         <v>570</v>
       </c>
       <c r="R134" t="s">
+        <v>590</v>
+      </c>
+      <c r="S134" t="s">
         <v>572</v>
       </c>
-      <c r="T134" t="s">
+      <c r="U134" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -10178,13 +10588,16 @@
         <v>569</v>
       </c>
       <c r="R135" t="s">
+        <v>590</v>
+      </c>
+      <c r="S135" t="s">
         <v>571</v>
       </c>
-      <c r="S135" t="s">
+      <c r="T135" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -10237,13 +10650,16 @@
         <v>569</v>
       </c>
       <c r="R136" t="s">
+        <v>589</v>
+      </c>
+      <c r="S136" t="s">
         <v>571</v>
       </c>
-      <c r="S136" t="s">
+      <c r="T136" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -10296,13 +10712,16 @@
         <v>569</v>
       </c>
       <c r="R137" t="s">
+        <v>589</v>
+      </c>
+      <c r="S137" t="s">
         <v>571</v>
       </c>
-      <c r="S137" t="s">
+      <c r="T137" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -10355,13 +10774,16 @@
         <v>569</v>
       </c>
       <c r="R138" t="s">
+        <v>590</v>
+      </c>
+      <c r="S138" t="s">
         <v>572</v>
       </c>
-      <c r="T138" t="s">
+      <c r="U138" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -10414,13 +10836,16 @@
         <v>569</v>
       </c>
       <c r="R139" t="s">
+        <v>590</v>
+      </c>
+      <c r="S139" t="s">
         <v>572</v>
       </c>
-      <c r="T139" t="s">
+      <c r="U139" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -10473,13 +10898,16 @@
         <v>569</v>
       </c>
       <c r="R140" t="s">
+        <v>589</v>
+      </c>
+      <c r="S140" t="s">
         <v>571</v>
       </c>
-      <c r="S140" t="s">
+      <c r="T140" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -10532,13 +10960,16 @@
         <v>569</v>
       </c>
       <c r="R141" t="s">
+        <v>589</v>
+      </c>
+      <c r="S141" t="s">
         <v>572</v>
       </c>
-      <c r="T141" t="s">
+      <c r="U141" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -10591,13 +11022,16 @@
         <v>569</v>
       </c>
       <c r="R142" t="s">
+        <v>589</v>
+      </c>
+      <c r="S142" t="s">
         <v>572</v>
       </c>
-      <c r="T142" t="s">
+      <c r="U142" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -10650,13 +11084,16 @@
         <v>570</v>
       </c>
       <c r="R143" t="s">
+        <v>589</v>
+      </c>
+      <c r="S143" t="s">
         <v>571</v>
       </c>
-      <c r="S143" t="s">
+      <c r="T143" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -10709,13 +11146,16 @@
         <v>570</v>
       </c>
       <c r="R144" t="s">
+        <v>589</v>
+      </c>
+      <c r="S144" t="s">
         <v>571</v>
       </c>
-      <c r="S144" t="s">
+      <c r="T144" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -10768,13 +11208,16 @@
         <v>570</v>
       </c>
       <c r="R145" t="s">
+        <v>589</v>
+      </c>
+      <c r="S145" t="s">
         <v>571</v>
       </c>
-      <c r="S145" t="s">
+      <c r="T145" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -10827,13 +11270,16 @@
         <v>569</v>
       </c>
       <c r="R146" t="s">
+        <v>589</v>
+      </c>
+      <c r="S146" t="s">
         <v>571</v>
       </c>
-      <c r="S146" t="s">
+      <c r="T146" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -10886,13 +11332,16 @@
         <v>569</v>
       </c>
       <c r="R147" t="s">
+        <v>589</v>
+      </c>
+      <c r="S147" t="s">
         <v>572</v>
       </c>
-      <c r="T147" t="s">
+      <c r="U147" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -10945,13 +11394,16 @@
         <v>569</v>
       </c>
       <c r="R148" t="s">
+        <v>589</v>
+      </c>
+      <c r="S148" t="s">
         <v>572</v>
       </c>
-      <c r="T148" t="s">
+      <c r="U148" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -11004,13 +11456,16 @@
         <v>570</v>
       </c>
       <c r="R149" t="s">
+        <v>589</v>
+      </c>
+      <c r="S149" t="s">
         <v>571</v>
       </c>
-      <c r="S149" t="s">
+      <c r="T149" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>25</v>
       </c>
@@ -11063,13 +11518,16 @@
         <v>570</v>
       </c>
       <c r="R150" t="s">
+        <v>589</v>
+      </c>
+      <c r="S150" t="s">
         <v>571</v>
       </c>
-      <c r="S150" t="s">
+      <c r="T150" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -11122,13 +11580,16 @@
         <v>569</v>
       </c>
       <c r="R151" t="s">
+        <v>590</v>
+      </c>
+      <c r="S151" t="s">
         <v>572</v>
       </c>
-      <c r="T151" t="s">
+      <c r="U151" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -11181,13 +11642,16 @@
         <v>569</v>
       </c>
       <c r="R152" t="s">
+        <v>589</v>
+      </c>
+      <c r="S152" t="s">
         <v>571</v>
       </c>
-      <c r="S152" t="s">
+      <c r="T152" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -11240,13 +11704,16 @@
         <v>569</v>
       </c>
       <c r="R153" t="s">
+        <v>589</v>
+      </c>
+      <c r="S153" t="s">
         <v>571</v>
       </c>
-      <c r="S153" t="s">
+      <c r="T153" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>29</v>
       </c>
@@ -11299,13 +11766,16 @@
         <v>569</v>
       </c>
       <c r="R154" t="s">
+        <v>590</v>
+      </c>
+      <c r="S154" t="s">
         <v>572</v>
       </c>
-      <c r="T154" t="s">
+      <c r="U154" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -11358,13 +11828,16 @@
         <v>570</v>
       </c>
       <c r="R155" t="s">
+        <v>590</v>
+      </c>
+      <c r="S155" t="s">
         <v>572</v>
       </c>
-      <c r="T155" t="s">
+      <c r="U155" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -11417,13 +11890,16 @@
         <v>569</v>
       </c>
       <c r="R156" t="s">
+        <v>590</v>
+      </c>
+      <c r="S156" t="s">
         <v>572</v>
       </c>
-      <c r="T156" t="s">
+      <c r="U156" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -11476,13 +11952,16 @@
         <v>570</v>
       </c>
       <c r="R157" t="s">
+        <v>589</v>
+      </c>
+      <c r="S157" t="s">
         <v>572</v>
       </c>
-      <c r="T157" t="s">
+      <c r="U157" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -11535,13 +12014,16 @@
         <v>570</v>
       </c>
       <c r="R158" t="s">
+        <v>590</v>
+      </c>
+      <c r="S158" t="s">
         <v>572</v>
       </c>
-      <c r="T158" t="s">
+      <c r="U158" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -11594,13 +12076,16 @@
         <v>569</v>
       </c>
       <c r="R159" t="s">
+        <v>589</v>
+      </c>
+      <c r="S159" t="s">
         <v>571</v>
       </c>
-      <c r="S159" t="s">
+      <c r="T159" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -11653,13 +12138,16 @@
         <v>569</v>
       </c>
       <c r="R160" t="s">
+        <v>589</v>
+      </c>
+      <c r="S160" t="s">
         <v>571</v>
       </c>
-      <c r="S160" t="s">
+      <c r="T160" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -11712,13 +12200,16 @@
         <v>570</v>
       </c>
       <c r="R161" t="s">
+        <v>590</v>
+      </c>
+      <c r="S161" t="s">
         <v>572</v>
       </c>
-      <c r="T161" t="s">
+      <c r="U161" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -11771,13 +12262,16 @@
         <v>569</v>
       </c>
       <c r="R162" t="s">
+        <v>589</v>
+      </c>
+      <c r="S162" t="s">
         <v>571</v>
       </c>
-      <c r="S162" t="s">
+      <c r="T162" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -11830,13 +12324,16 @@
         <v>570</v>
       </c>
       <c r="R163" t="s">
+        <v>589</v>
+      </c>
+      <c r="S163" t="s">
         <v>572</v>
       </c>
-      <c r="T163" t="s">
+      <c r="U163" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -11889,13 +12386,16 @@
         <v>569</v>
       </c>
       <c r="R164" t="s">
+        <v>589</v>
+      </c>
+      <c r="S164" t="s">
         <v>571</v>
       </c>
-      <c r="S164" t="s">
+      <c r="T164" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -11948,13 +12448,16 @@
         <v>569</v>
       </c>
       <c r="R165" t="s">
+        <v>589</v>
+      </c>
+      <c r="S165" t="s">
         <v>572</v>
       </c>
-      <c r="T165" t="s">
+      <c r="U165" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -12007,13 +12510,16 @@
         <v>570</v>
       </c>
       <c r="R166" t="s">
+        <v>590</v>
+      </c>
+      <c r="S166" t="s">
         <v>572</v>
       </c>
-      <c r="T166" t="s">
+      <c r="U166" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -12066,13 +12572,16 @@
         <v>569</v>
       </c>
       <c r="R167" t="s">
+        <v>589</v>
+      </c>
+      <c r="S167" t="s">
         <v>572</v>
       </c>
-      <c r="T167" t="s">
+      <c r="U167" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -12125,13 +12634,16 @@
         <v>570</v>
       </c>
       <c r="R168" t="s">
+        <v>589</v>
+      </c>
+      <c r="S168" t="s">
         <v>571</v>
       </c>
-      <c r="S168" t="s">
+      <c r="T168" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -12184,13 +12696,16 @@
         <v>569</v>
       </c>
       <c r="R169" t="s">
+        <v>589</v>
+      </c>
+      <c r="S169" t="s">
         <v>571</v>
       </c>
-      <c r="S169" t="s">
+      <c r="T169" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -12243,13 +12758,16 @@
         <v>569</v>
       </c>
       <c r="R170" t="s">
+        <v>589</v>
+      </c>
+      <c r="S170" t="s">
         <v>571</v>
       </c>
-      <c r="S170" t="s">
+      <c r="T170" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -12302,13 +12820,16 @@
         <v>569</v>
       </c>
       <c r="R171" t="s">
+        <v>590</v>
+      </c>
+      <c r="S171" t="s">
         <v>572</v>
       </c>
-      <c r="T171" t="s">
+      <c r="U171" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -12361,13 +12882,16 @@
         <v>570</v>
       </c>
       <c r="R172" t="s">
+        <v>589</v>
+      </c>
+      <c r="S172" t="s">
         <v>571</v>
       </c>
-      <c r="S172" t="s">
+      <c r="T172" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -12420,13 +12944,16 @@
         <v>569</v>
       </c>
       <c r="R173" t="s">
+        <v>589</v>
+      </c>
+      <c r="S173" t="s">
         <v>571</v>
       </c>
-      <c r="S173" t="s">
+      <c r="T173" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -12479,13 +13006,16 @@
         <v>570</v>
       </c>
       <c r="R174" t="s">
+        <v>589</v>
+      </c>
+      <c r="S174" t="s">
         <v>571</v>
       </c>
-      <c r="S174" t="s">
+      <c r="T174" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -12538,13 +13068,16 @@
         <v>569</v>
       </c>
       <c r="R175" t="s">
+        <v>589</v>
+      </c>
+      <c r="S175" t="s">
         <v>571</v>
       </c>
-      <c r="S175" t="s">
+      <c r="T175" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -12597,13 +13130,16 @@
         <v>569</v>
       </c>
       <c r="R176" t="s">
+        <v>589</v>
+      </c>
+      <c r="S176" t="s">
         <v>571</v>
       </c>
-      <c r="S176" t="s">
+      <c r="T176" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -12656,13 +13192,16 @@
         <v>569</v>
       </c>
       <c r="R177" t="s">
+        <v>589</v>
+      </c>
+      <c r="S177" t="s">
         <v>571</v>
       </c>
-      <c r="S177" t="s">
+      <c r="T177" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -12715,13 +13254,16 @@
         <v>570</v>
       </c>
       <c r="R178" t="s">
+        <v>589</v>
+      </c>
+      <c r="S178" t="s">
         <v>572</v>
       </c>
-      <c r="T178" t="s">
+      <c r="U178" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -12774,13 +13316,16 @@
         <v>570</v>
       </c>
       <c r="R179" t="s">
+        <v>590</v>
+      </c>
+      <c r="S179" t="s">
         <v>572</v>
       </c>
-      <c r="T179" t="s">
+      <c r="U179" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -12833,13 +13378,16 @@
         <v>569</v>
       </c>
       <c r="R180" t="s">
+        <v>589</v>
+      </c>
+      <c r="S180" t="s">
         <v>572</v>
       </c>
-      <c r="T180" t="s">
+      <c r="U180" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -12892,13 +13440,16 @@
         <v>569</v>
       </c>
       <c r="R181" t="s">
+        <v>589</v>
+      </c>
+      <c r="S181" t="s">
         <v>571</v>
       </c>
-      <c r="S181" t="s">
+      <c r="T181" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -12951,13 +13502,16 @@
         <v>569</v>
       </c>
       <c r="R182" t="s">
+        <v>589</v>
+      </c>
+      <c r="S182" t="s">
         <v>571</v>
       </c>
-      <c r="S182" t="s">
+      <c r="T182" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -13010,13 +13564,16 @@
         <v>569</v>
       </c>
       <c r="R183" t="s">
+        <v>590</v>
+      </c>
+      <c r="S183" t="s">
         <v>572</v>
       </c>
-      <c r="T183" t="s">
+      <c r="U183" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -13069,13 +13626,16 @@
         <v>570</v>
       </c>
       <c r="R184" t="s">
+        <v>590</v>
+      </c>
+      <c r="S184" t="s">
         <v>572</v>
       </c>
-      <c r="T184" t="s">
+      <c r="U184" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -13128,13 +13688,16 @@
         <v>569</v>
       </c>
       <c r="R185" t="s">
+        <v>589</v>
+      </c>
+      <c r="S185" t="s">
         <v>571</v>
       </c>
-      <c r="S185" t="s">
+      <c r="T185" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -13187,13 +13750,16 @@
         <v>569</v>
       </c>
       <c r="R186" t="s">
+        <v>589</v>
+      </c>
+      <c r="S186" t="s">
         <v>571</v>
       </c>
-      <c r="S186" t="s">
+      <c r="T186" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -13246,13 +13812,16 @@
         <v>569</v>
       </c>
       <c r="R187" t="s">
+        <v>589</v>
+      </c>
+      <c r="S187" t="s">
         <v>571</v>
       </c>
-      <c r="S187" t="s">
+      <c r="T187" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -13305,13 +13874,16 @@
         <v>569</v>
       </c>
       <c r="R188" t="s">
+        <v>590</v>
+      </c>
+      <c r="S188" t="s">
         <v>572</v>
       </c>
-      <c r="T188" t="s">
+      <c r="U188" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -13364,13 +13936,16 @@
         <v>569</v>
       </c>
       <c r="R189" t="s">
+        <v>589</v>
+      </c>
+      <c r="S189" t="s">
         <v>572</v>
       </c>
-      <c r="T189" t="s">
+      <c r="U189" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -13423,13 +13998,16 @@
         <v>569</v>
       </c>
       <c r="R190" t="s">
+        <v>589</v>
+      </c>
+      <c r="S190" t="s">
         <v>571</v>
       </c>
-      <c r="S190" t="s">
+      <c r="T190" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -13482,13 +14060,16 @@
         <v>569</v>
       </c>
       <c r="R191" t="s">
+        <v>589</v>
+      </c>
+      <c r="S191" t="s">
         <v>572</v>
       </c>
-      <c r="T191" t="s">
+      <c r="U191" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -13541,13 +14122,16 @@
         <v>569</v>
       </c>
       <c r="R192" t="s">
+        <v>589</v>
+      </c>
+      <c r="S192" t="s">
         <v>571</v>
       </c>
-      <c r="S192" t="s">
+      <c r="T192" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -13600,13 +14184,16 @@
         <v>570</v>
       </c>
       <c r="R193" t="s">
+        <v>589</v>
+      </c>
+      <c r="S193" t="s">
         <v>571</v>
       </c>
-      <c r="S193" t="s">
+      <c r="T193" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -13659,13 +14246,16 @@
         <v>570</v>
       </c>
       <c r="R194" t="s">
+        <v>590</v>
+      </c>
+      <c r="S194" t="s">
         <v>572</v>
       </c>
-      <c r="T194" t="s">
+      <c r="U194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>30</v>
       </c>
@@ -13718,13 +14308,16 @@
         <v>570</v>
       </c>
       <c r="R195" t="s">
+        <v>589</v>
+      </c>
+      <c r="S195" t="s">
         <v>571</v>
       </c>
-      <c r="S195" t="s">
+      <c r="T195" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>31</v>
       </c>
@@ -13777,13 +14370,16 @@
         <v>569</v>
       </c>
       <c r="R196" t="s">
+        <v>589</v>
+      </c>
+      <c r="S196" t="s">
         <v>571</v>
       </c>
-      <c r="S196" t="s">
+      <c r="T196" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -13836,13 +14432,16 @@
         <v>569</v>
       </c>
       <c r="R197" t="s">
+        <v>589</v>
+      </c>
+      <c r="S197" t="s">
         <v>571</v>
       </c>
-      <c r="S197" t="s">
+      <c r="T197" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>33</v>
       </c>
@@ -13895,13 +14494,16 @@
         <v>569</v>
       </c>
       <c r="R198" t="s">
+        <v>590</v>
+      </c>
+      <c r="S198" t="s">
         <v>572</v>
       </c>
-      <c r="T198" t="s">
+      <c r="U198" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -13954,13 +14556,16 @@
         <v>570</v>
       </c>
       <c r="R199" t="s">
+        <v>590</v>
+      </c>
+      <c r="S199" t="s">
         <v>572</v>
       </c>
-      <c r="T199" t="s">
+      <c r="U199" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>35</v>
       </c>
@@ -14013,13 +14618,16 @@
         <v>570</v>
       </c>
       <c r="R200" t="s">
+        <v>589</v>
+      </c>
+      <c r="S200" t="s">
         <v>572</v>
       </c>
-      <c r="T200" t="s">
+      <c r="U200" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -14072,13 +14680,16 @@
         <v>569</v>
       </c>
       <c r="R201" t="s">
+        <v>589</v>
+      </c>
+      <c r="S201" t="s">
         <v>571</v>
       </c>
-      <c r="S201" t="s">
+      <c r="T201" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -14131,13 +14742,16 @@
         <v>569</v>
       </c>
       <c r="R202" t="s">
+        <v>589</v>
+      </c>
+      <c r="S202" t="s">
         <v>571</v>
       </c>
-      <c r="S202" t="s">
+      <c r="T202" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -14190,13 +14804,16 @@
         <v>569</v>
       </c>
       <c r="R203" t="s">
+        <v>590</v>
+      </c>
+      <c r="S203" t="s">
         <v>572</v>
       </c>
-      <c r="T203" t="s">
+      <c r="U203" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -14249,13 +14866,16 @@
         <v>569</v>
       </c>
       <c r="R204" t="s">
+        <v>590</v>
+      </c>
+      <c r="S204" t="s">
         <v>572</v>
       </c>
-      <c r="T204" t="s">
+      <c r="U204" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -14308,13 +14928,16 @@
         <v>570</v>
       </c>
       <c r="R205" t="s">
+        <v>590</v>
+      </c>
+      <c r="S205" t="s">
         <v>572</v>
       </c>
-      <c r="T205" t="s">
+      <c r="U205" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -14367,13 +14990,16 @@
         <v>569</v>
       </c>
       <c r="R206" t="s">
+        <v>589</v>
+      </c>
+      <c r="S206" t="s">
         <v>572</v>
       </c>
-      <c r="T206" t="s">
+      <c r="U206" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -14426,13 +15052,16 @@
         <v>570</v>
       </c>
       <c r="R207" t="s">
+        <v>589</v>
+      </c>
+      <c r="S207" t="s">
         <v>572</v>
       </c>
-      <c r="T207" t="s">
+      <c r="U207" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -14485,13 +15114,16 @@
         <v>570</v>
       </c>
       <c r="R208" t="s">
+        <v>589</v>
+      </c>
+      <c r="S208" t="s">
         <v>571</v>
       </c>
-      <c r="S208" t="s">
+      <c r="T208" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -14544,13 +15176,16 @@
         <v>569</v>
       </c>
       <c r="R209" t="s">
+        <v>590</v>
+      </c>
+      <c r="S209" t="s">
         <v>572</v>
       </c>
-      <c r="T209" t="s">
+      <c r="U209" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -14603,13 +15238,16 @@
         <v>569</v>
       </c>
       <c r="R210" t="s">
+        <v>589</v>
+      </c>
+      <c r="S210" t="s">
         <v>571</v>
       </c>
-      <c r="S210" t="s">
+      <c r="T210" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -14662,13 +15300,16 @@
         <v>570</v>
       </c>
       <c r="R211" t="s">
+        <v>590</v>
+      </c>
+      <c r="S211" t="s">
         <v>571</v>
       </c>
-      <c r="S211" t="s">
+      <c r="T211" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -14721,13 +15362,16 @@
         <v>569</v>
       </c>
       <c r="R212" t="s">
+        <v>589</v>
+      </c>
+      <c r="S212" t="s">
         <v>572</v>
       </c>
-      <c r="T212" t="s">
+      <c r="U212" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -14780,13 +15424,16 @@
         <v>570</v>
       </c>
       <c r="R213" t="s">
+        <v>589</v>
+      </c>
+      <c r="S213" t="s">
         <v>572</v>
       </c>
-      <c r="T213" t="s">
+      <c r="U213" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -14839,13 +15486,16 @@
         <v>569</v>
       </c>
       <c r="R214" t="s">
+        <v>590</v>
+      </c>
+      <c r="S214" t="s">
         <v>572</v>
       </c>
-      <c r="T214" t="s">
+      <c r="U214" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -14898,13 +15548,16 @@
         <v>569</v>
       </c>
       <c r="R215" t="s">
+        <v>589</v>
+      </c>
+      <c r="S215" t="s">
         <v>572</v>
       </c>
-      <c r="T215" t="s">
+      <c r="U215" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -14957,13 +15610,16 @@
         <v>570</v>
       </c>
       <c r="R216" t="s">
+        <v>589</v>
+      </c>
+      <c r="S216" t="s">
         <v>571</v>
       </c>
-      <c r="S216" t="s">
+      <c r="T216" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -15016,13 +15672,16 @@
         <v>569</v>
       </c>
       <c r="R217" t="s">
+        <v>590</v>
+      </c>
+      <c r="S217" t="s">
         <v>572</v>
       </c>
-      <c r="T217" t="s">
+      <c r="U217" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>33</v>
       </c>
@@ -15075,13 +15734,16 @@
         <v>570</v>
       </c>
       <c r="R218" t="s">
+        <v>589</v>
+      </c>
+      <c r="S218" t="s">
         <v>571</v>
       </c>
-      <c r="S218" t="s">
+      <c r="T218" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -15134,13 +15796,16 @@
         <v>569</v>
       </c>
       <c r="R219" t="s">
+        <v>589</v>
+      </c>
+      <c r="S219" t="s">
         <v>571</v>
       </c>
-      <c r="S219" t="s">
+      <c r="T219" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>35</v>
       </c>
@@ -15193,13 +15858,16 @@
         <v>569</v>
       </c>
       <c r="R220" t="s">
+        <v>589</v>
+      </c>
+      <c r="S220" t="s">
         <v>571</v>
       </c>
-      <c r="S220" t="s">
+      <c r="T220" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>36</v>
       </c>
@@ -15252,13 +15920,16 @@
         <v>569</v>
       </c>
       <c r="R221" t="s">
+        <v>590</v>
+      </c>
+      <c r="S221" t="s">
         <v>571</v>
       </c>
-      <c r="S221" t="s">
+      <c r="T221" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -15311,13 +15982,16 @@
         <v>570</v>
       </c>
       <c r="R222" t="s">
+        <v>589</v>
+      </c>
+      <c r="S222" t="s">
         <v>572</v>
       </c>
-      <c r="T222" t="s">
+      <c r="U222" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -15370,13 +16044,16 @@
         <v>569</v>
       </c>
       <c r="R223" t="s">
+        <v>589</v>
+      </c>
+      <c r="S223" t="s">
         <v>571</v>
       </c>
-      <c r="S223" t="s">
+      <c r="T223" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -15429,13 +16106,16 @@
         <v>570</v>
       </c>
       <c r="R224" t="s">
+        <v>589</v>
+      </c>
+      <c r="S224" t="s">
         <v>572</v>
       </c>
-      <c r="T224" t="s">
+      <c r="U224" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -15488,13 +16168,16 @@
         <v>569</v>
       </c>
       <c r="R225" t="s">
+        <v>589</v>
+      </c>
+      <c r="S225" t="s">
         <v>571</v>
       </c>
-      <c r="S225" t="s">
+      <c r="T225" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -15547,13 +16230,16 @@
         <v>569</v>
       </c>
       <c r="R226" t="s">
+        <v>590</v>
+      </c>
+      <c r="S226" t="s">
         <v>572</v>
       </c>
-      <c r="T226" t="s">
+      <c r="U226" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -15606,13 +16292,16 @@
         <v>569</v>
       </c>
       <c r="R227" t="s">
+        <v>590</v>
+      </c>
+      <c r="S227" t="s">
         <v>572</v>
       </c>
-      <c r="T227" t="s">
+      <c r="U227" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -15665,13 +16354,16 @@
         <v>570</v>
       </c>
       <c r="R228" t="s">
+        <v>589</v>
+      </c>
+      <c r="S228" t="s">
         <v>572</v>
       </c>
-      <c r="T228" t="s">
+      <c r="U228" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -15724,13 +16416,16 @@
         <v>570</v>
       </c>
       <c r="R229" t="s">
+        <v>589</v>
+      </c>
+      <c r="S229" t="s">
         <v>572</v>
       </c>
-      <c r="T229" t="s">
+      <c r="U229" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -15783,13 +16478,16 @@
         <v>569</v>
       </c>
       <c r="R230" t="s">
+        <v>589</v>
+      </c>
+      <c r="S230" t="s">
         <v>571</v>
       </c>
-      <c r="S230" t="s">
+      <c r="T230" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -15842,13 +16540,16 @@
         <v>569</v>
       </c>
       <c r="R231" t="s">
+        <v>589</v>
+      </c>
+      <c r="S231" t="s">
         <v>571</v>
       </c>
-      <c r="S231" t="s">
+      <c r="T231" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -15901,13 +16602,16 @@
         <v>569</v>
       </c>
       <c r="R232" t="s">
+        <v>589</v>
+      </c>
+      <c r="S232" t="s">
         <v>571</v>
       </c>
-      <c r="S232" t="s">
+      <c r="T232" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>28</v>
       </c>
@@ -15960,13 +16664,16 @@
         <v>569</v>
       </c>
       <c r="R233" t="s">
+        <v>589</v>
+      </c>
+      <c r="S233" t="s">
         <v>572</v>
       </c>
-      <c r="T233" t="s">
+      <c r="U233" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>29</v>
       </c>
@@ -16019,13 +16726,16 @@
         <v>570</v>
       </c>
       <c r="R234" t="s">
+        <v>589</v>
+      </c>
+      <c r="S234" t="s">
         <v>572</v>
       </c>
-      <c r="T234" t="s">
+      <c r="U234" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -16078,13 +16788,16 @@
         <v>569</v>
       </c>
       <c r="R235" t="s">
+        <v>589</v>
+      </c>
+      <c r="S235" t="s">
         <v>572</v>
       </c>
-      <c r="T235" t="s">
+      <c r="U235" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -16137,13 +16850,16 @@
         <v>569</v>
       </c>
       <c r="R236" t="s">
+        <v>589</v>
+      </c>
+      <c r="S236" t="s">
         <v>571</v>
       </c>
-      <c r="S236" t="s">
+      <c r="T236" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -16196,13 +16912,16 @@
         <v>569</v>
       </c>
       <c r="R237" t="s">
+        <v>589</v>
+      </c>
+      <c r="S237" t="s">
         <v>572</v>
       </c>
-      <c r="T237" t="s">
+      <c r="U237" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>33</v>
       </c>
@@ -16255,13 +16974,16 @@
         <v>569</v>
       </c>
       <c r="R238" t="s">
+        <v>589</v>
+      </c>
+      <c r="S238" t="s">
         <v>572</v>
       </c>
-      <c r="T238" t="s">
+      <c r="U238" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -16314,13 +17036,16 @@
         <v>569</v>
       </c>
       <c r="R239" t="s">
+        <v>589</v>
+      </c>
+      <c r="S239" t="s">
         <v>572</v>
       </c>
-      <c r="T239" t="s">
+      <c r="U239" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -16373,13 +17098,16 @@
         <v>569</v>
       </c>
       <c r="R240" t="s">
+        <v>589</v>
+      </c>
+      <c r="S240" t="s">
         <v>571</v>
       </c>
-      <c r="S240" t="s">
+      <c r="T240" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>36</v>
       </c>
@@ -16432,13 +17160,16 @@
         <v>569</v>
       </c>
       <c r="R241" t="s">
+        <v>590</v>
+      </c>
+      <c r="S241" t="s">
         <v>572</v>
       </c>
-      <c r="T241" t="s">
+      <c r="U241" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -16491,13 +17222,16 @@
         <v>569</v>
       </c>
       <c r="R242" t="s">
+        <v>590</v>
+      </c>
+      <c r="S242" t="s">
         <v>572</v>
       </c>
-      <c r="T242" t="s">
+      <c r="U242" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -16550,13 +17284,16 @@
         <v>570</v>
       </c>
       <c r="R243" t="s">
+        <v>589</v>
+      </c>
+      <c r="S243" t="s">
         <v>571</v>
       </c>
-      <c r="S243" t="s">
+      <c r="T243" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -16609,13 +17346,16 @@
         <v>570</v>
       </c>
       <c r="R244" t="s">
+        <v>589</v>
+      </c>
+      <c r="S244" t="s">
         <v>571</v>
       </c>
-      <c r="S244" t="s">
+      <c r="T244" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -16668,13 +17408,16 @@
         <v>570</v>
       </c>
       <c r="R245" t="s">
+        <v>589</v>
+      </c>
+      <c r="S245" t="s">
         <v>571</v>
       </c>
-      <c r="S245" t="s">
+      <c r="T245" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -16727,13 +17470,16 @@
         <v>569</v>
       </c>
       <c r="R246" t="s">
+        <v>589</v>
+      </c>
+      <c r="S246" t="s">
         <v>572</v>
       </c>
-      <c r="T246" t="s">
+      <c r="U246" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -16786,13 +17532,16 @@
         <v>569</v>
       </c>
       <c r="R247" t="s">
+        <v>589</v>
+      </c>
+      <c r="S247" t="s">
         <v>572</v>
       </c>
-      <c r="T247" t="s">
+      <c r="U247" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>23</v>
       </c>
@@ -16845,13 +17594,16 @@
         <v>569</v>
       </c>
       <c r="R248" t="s">
+        <v>590</v>
+      </c>
+      <c r="S248" t="s">
         <v>572</v>
       </c>
-      <c r="T248" t="s">
+      <c r="U248" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -16904,13 +17656,16 @@
         <v>570</v>
       </c>
       <c r="R249" t="s">
+        <v>589</v>
+      </c>
+      <c r="S249" t="s">
         <v>571</v>
       </c>
-      <c r="S249" t="s">
+      <c r="T249" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>25</v>
       </c>
@@ -16963,13 +17718,16 @@
         <v>570</v>
       </c>
       <c r="R250" t="s">
+        <v>589</v>
+      </c>
+      <c r="S250" t="s">
         <v>571</v>
       </c>
-      <c r="S250" t="s">
+      <c r="T250" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -17022,13 +17780,16 @@
         <v>569</v>
       </c>
       <c r="R251" t="s">
+        <v>590</v>
+      </c>
+      <c r="S251" t="s">
         <v>572</v>
       </c>
-      <c r="T251" t="s">
+      <c r="U251" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -17081,13 +17842,16 @@
         <v>569</v>
       </c>
       <c r="R252" t="s">
+        <v>590</v>
+      </c>
+      <c r="S252" t="s">
         <v>571</v>
       </c>
-      <c r="S252" t="s">
+      <c r="T252" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>28</v>
       </c>
@@ -17140,13 +17904,16 @@
         <v>569</v>
       </c>
       <c r="R253" t="s">
+        <v>590</v>
+      </c>
+      <c r="S253" t="s">
         <v>572</v>
       </c>
-      <c r="T253" t="s">
+      <c r="U253" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>29</v>
       </c>
@@ -17199,13 +17966,16 @@
         <v>569</v>
       </c>
       <c r="R254" t="s">
+        <v>590</v>
+      </c>
+      <c r="S254" t="s">
         <v>571</v>
       </c>
-      <c r="S254" t="s">
+      <c r="T254" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>30</v>
       </c>
@@ -17258,13 +18028,16 @@
         <v>570</v>
       </c>
       <c r="R255" t="s">
+        <v>590</v>
+      </c>
+      <c r="S255" t="s">
         <v>572</v>
       </c>
-      <c r="T255" t="s">
+      <c r="U255" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>31</v>
       </c>
@@ -17317,13 +18090,16 @@
         <v>569</v>
       </c>
       <c r="R256" t="s">
+        <v>590</v>
+      </c>
+      <c r="S256" t="s">
         <v>572</v>
       </c>
-      <c r="T256" t="s">
+      <c r="U256" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -17376,13 +18152,16 @@
         <v>570</v>
       </c>
       <c r="R257" t="s">
+        <v>590</v>
+      </c>
+      <c r="S257" t="s">
         <v>571</v>
       </c>
-      <c r="S257" t="s">
+      <c r="T257" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>33</v>
       </c>
@@ -17435,13 +18214,16 @@
         <v>570</v>
       </c>
       <c r="R258" t="s">
+        <v>589</v>
+      </c>
+      <c r="S258" t="s">
         <v>572</v>
       </c>
-      <c r="T258" t="s">
+      <c r="U258" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -17494,13 +18276,16 @@
         <v>569</v>
       </c>
       <c r="R259" t="s">
+        <v>590</v>
+      </c>
+      <c r="S259" t="s">
         <v>571</v>
       </c>
-      <c r="S259" t="s">
+      <c r="T259" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>35</v>
       </c>
@@ -17553,13 +18338,16 @@
         <v>569</v>
       </c>
       <c r="R260" t="s">
+        <v>590</v>
+      </c>
+      <c r="S260" t="s">
         <v>571</v>
       </c>
-      <c r="S260" t="s">
+      <c r="T260" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>36</v>
       </c>
@@ -17612,13 +18400,16 @@
         <v>570</v>
       </c>
       <c r="R261" t="s">
+        <v>590</v>
+      </c>
+      <c r="S261" t="s">
         <v>572</v>
       </c>
-      <c r="T261" t="s">
+      <c r="U261" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -17671,13 +18462,16 @@
         <v>569</v>
       </c>
       <c r="R262" t="s">
+        <v>590</v>
+      </c>
+      <c r="S262" t="s">
         <v>571</v>
       </c>
-      <c r="S262" t="s">
+      <c r="T262" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>18</v>
       </c>
@@ -17730,13 +18524,16 @@
         <v>570</v>
       </c>
       <c r="R263" t="s">
+        <v>589</v>
+      </c>
+      <c r="S263" t="s">
         <v>572</v>
       </c>
-      <c r="T263" t="s">
+      <c r="U263" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -17789,13 +18586,16 @@
         <v>569</v>
       </c>
       <c r="R264" t="s">
+        <v>589</v>
+      </c>
+      <c r="S264" t="s">
         <v>572</v>
       </c>
-      <c r="T264" t="s">
+      <c r="U264" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -17848,13 +18648,16 @@
         <v>569</v>
       </c>
       <c r="R265" t="s">
+        <v>590</v>
+      </c>
+      <c r="S265" t="s">
         <v>572</v>
       </c>
-      <c r="T265" t="s">
+      <c r="U265" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -17907,13 +18710,16 @@
         <v>570</v>
       </c>
       <c r="R266" t="s">
+        <v>590</v>
+      </c>
+      <c r="S266" t="s">
         <v>572</v>
       </c>
-      <c r="T266" t="s">
+      <c r="U266" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -17966,13 +18772,16 @@
         <v>569</v>
       </c>
       <c r="R267" t="s">
+        <v>590</v>
+      </c>
+      <c r="S267" t="s">
         <v>572</v>
       </c>
-      <c r="T267" t="s">
+      <c r="U267" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -18025,13 +18834,16 @@
         <v>570</v>
       </c>
       <c r="R268" t="s">
+        <v>590</v>
+      </c>
+      <c r="S268" t="s">
         <v>571</v>
       </c>
-      <c r="S268" t="s">
+      <c r="T268" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>24</v>
       </c>
@@ -18084,13 +18896,16 @@
         <v>569</v>
       </c>
       <c r="R269" t="s">
+        <v>589</v>
+      </c>
+      <c r="S269" t="s">
         <v>572</v>
       </c>
-      <c r="T269" t="s">
+      <c r="U269" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -18143,13 +18958,16 @@
         <v>569</v>
       </c>
       <c r="R270" t="s">
+        <v>589</v>
+      </c>
+      <c r="S270" t="s">
         <v>572</v>
       </c>
-      <c r="T270" t="s">
+      <c r="U270" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>26</v>
       </c>
@@ -18202,13 +19020,16 @@
         <v>569</v>
       </c>
       <c r="R271" t="s">
+        <v>589</v>
+      </c>
+      <c r="S271" t="s">
         <v>571</v>
       </c>
-      <c r="S271" t="s">
+      <c r="T271" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -18261,13 +19082,16 @@
         <v>570</v>
       </c>
       <c r="R272" t="s">
+        <v>590</v>
+      </c>
+      <c r="S272" t="s">
         <v>571</v>
       </c>
-      <c r="S272" t="s">
+      <c r="T272" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -18320,13 +19144,16 @@
         <v>569</v>
       </c>
       <c r="R273" t="s">
+        <v>589</v>
+      </c>
+      <c r="S273" t="s">
         <v>572</v>
       </c>
-      <c r="T273" t="s">
+      <c r="U273" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>29</v>
       </c>
@@ -18379,13 +19206,16 @@
         <v>570</v>
       </c>
       <c r="R274" t="s">
+        <v>590</v>
+      </c>
+      <c r="S274" t="s">
         <v>571</v>
       </c>
-      <c r="S274" t="s">
+      <c r="T274" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>30</v>
       </c>
@@ -18438,13 +19268,16 @@
         <v>569</v>
       </c>
       <c r="R275" t="s">
+        <v>589</v>
+      </c>
+      <c r="S275" t="s">
         <v>572</v>
       </c>
-      <c r="T275" t="s">
+      <c r="U275" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>31</v>
       </c>
@@ -18497,13 +19330,16 @@
         <v>569</v>
       </c>
       <c r="R276" t="s">
+        <v>590</v>
+      </c>
+      <c r="S276" t="s">
         <v>571</v>
       </c>
-      <c r="S276" t="s">
+      <c r="T276" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -18556,13 +19392,16 @@
         <v>569</v>
       </c>
       <c r="R277" t="s">
+        <v>590</v>
+      </c>
+      <c r="S277" t="s">
         <v>571</v>
       </c>
-      <c r="S277" t="s">
+      <c r="T277" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -18615,13 +19454,16 @@
         <v>570</v>
       </c>
       <c r="R278" t="s">
+        <v>589</v>
+      </c>
+      <c r="S278" t="s">
         <v>572</v>
       </c>
-      <c r="T278" t="s">
+      <c r="U278" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>34</v>
       </c>
@@ -18674,13 +19516,16 @@
         <v>570</v>
       </c>
       <c r="R279" t="s">
+        <v>590</v>
+      </c>
+      <c r="S279" t="s">
         <v>572</v>
       </c>
-      <c r="T279" t="s">
+      <c r="U279" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>35</v>
       </c>
@@ -18733,13 +19578,16 @@
         <v>569</v>
       </c>
       <c r="R280" t="s">
+        <v>590</v>
+      </c>
+      <c r="S280" t="s">
         <v>572</v>
       </c>
-      <c r="T280" t="s">
+      <c r="U280" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>36</v>
       </c>
@@ -18792,13 +19640,16 @@
         <v>569</v>
       </c>
       <c r="R281" t="s">
+        <v>589</v>
+      </c>
+      <c r="S281" t="s">
         <v>572</v>
       </c>
-      <c r="T281" t="s">
+      <c r="U281" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -18851,13 +19702,16 @@
         <v>569</v>
       </c>
       <c r="R282" t="s">
+        <v>590</v>
+      </c>
+      <c r="S282" t="s">
         <v>572</v>
       </c>
-      <c r="T282" t="s">
+      <c r="U282" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -18910,13 +19764,16 @@
         <v>569</v>
       </c>
       <c r="R283" t="s">
+        <v>590</v>
+      </c>
+      <c r="S283" t="s">
         <v>572</v>
       </c>
-      <c r="T283" t="s">
+      <c r="U283" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -18969,13 +19826,16 @@
         <v>570</v>
       </c>
       <c r="R284" t="s">
+        <v>590</v>
+      </c>
+      <c r="S284" t="s">
         <v>572</v>
       </c>
-      <c r="T284" t="s">
+      <c r="U284" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -19028,13 +19888,16 @@
         <v>569</v>
       </c>
       <c r="R285" t="s">
+        <v>589</v>
+      </c>
+      <c r="S285" t="s">
         <v>572</v>
       </c>
-      <c r="T285" t="s">
+      <c r="U285" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -19087,13 +19950,16 @@
         <v>569</v>
       </c>
       <c r="R286" t="s">
+        <v>590</v>
+      </c>
+      <c r="S286" t="s">
         <v>571</v>
       </c>
-      <c r="S286" t="s">
+      <c r="T286" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -19146,13 +20012,16 @@
         <v>569</v>
       </c>
       <c r="R287" t="s">
+        <v>590</v>
+      </c>
+      <c r="S287" t="s">
         <v>572</v>
       </c>
-      <c r="T287" t="s">
+      <c r="U287" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -19205,13 +20074,16 @@
         <v>569</v>
       </c>
       <c r="R288" t="s">
+        <v>590</v>
+      </c>
+      <c r="S288" t="s">
         <v>572</v>
       </c>
-      <c r="T288" t="s">
+      <c r="U288" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -19264,13 +20136,16 @@
         <v>569</v>
       </c>
       <c r="R289" t="s">
+        <v>590</v>
+      </c>
+      <c r="S289" t="s">
         <v>572</v>
       </c>
-      <c r="T289" t="s">
+      <c r="U289" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>25</v>
       </c>
@@ -19323,13 +20198,16 @@
         <v>569</v>
       </c>
       <c r="R290" t="s">
+        <v>590</v>
+      </c>
+      <c r="S290" t="s">
         <v>571</v>
       </c>
-      <c r="S290" t="s">
+      <c r="T290" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -19382,13 +20260,16 @@
         <v>569</v>
       </c>
       <c r="R291" t="s">
+        <v>589</v>
+      </c>
+      <c r="S291" t="s">
         <v>572</v>
       </c>
-      <c r="T291" t="s">
+      <c r="U291" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -19441,13 +20322,16 @@
         <v>569</v>
       </c>
       <c r="R292" t="s">
+        <v>589</v>
+      </c>
+      <c r="S292" t="s">
         <v>572</v>
       </c>
-      <c r="T292" t="s">
+      <c r="U292" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>28</v>
       </c>
@@ -19500,13 +20384,16 @@
         <v>570</v>
       </c>
       <c r="R293" t="s">
+        <v>590</v>
+      </c>
+      <c r="S293" t="s">
         <v>571</v>
       </c>
-      <c r="S293" t="s">
+      <c r="T293" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>29</v>
       </c>
@@ -19559,13 +20446,16 @@
         <v>570</v>
       </c>
       <c r="R294" t="s">
+        <v>590</v>
+      </c>
+      <c r="S294" t="s">
         <v>571</v>
       </c>
-      <c r="S294" t="s">
+      <c r="T294" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>30</v>
       </c>
@@ -19618,13 +20508,16 @@
         <v>570</v>
       </c>
       <c r="R295" t="s">
+        <v>589</v>
+      </c>
+      <c r="S295" t="s">
         <v>572</v>
       </c>
-      <c r="T295" t="s">
+      <c r="U295" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>31</v>
       </c>
@@ -19677,13 +20570,16 @@
         <v>569</v>
       </c>
       <c r="R296" t="s">
+        <v>590</v>
+      </c>
+      <c r="S296" t="s">
         <v>571</v>
       </c>
-      <c r="S296" t="s">
+      <c r="T296" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>32</v>
       </c>
@@ -19736,13 +20632,16 @@
         <v>569</v>
       </c>
       <c r="R297" t="s">
+        <v>590</v>
+      </c>
+      <c r="S297" t="s">
         <v>571</v>
       </c>
-      <c r="S297" t="s">
+      <c r="T297" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>33</v>
       </c>
@@ -19795,13 +20694,16 @@
         <v>569</v>
       </c>
       <c r="R298" t="s">
+        <v>589</v>
+      </c>
+      <c r="S298" t="s">
         <v>572</v>
       </c>
-      <c r="T298" t="s">
+      <c r="U298" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>34</v>
       </c>
@@ -19854,13 +20756,16 @@
         <v>570</v>
       </c>
       <c r="R299" t="s">
+        <v>590</v>
+      </c>
+      <c r="S299" t="s">
         <v>571</v>
       </c>
-      <c r="S299" t="s">
+      <c r="T299" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>35</v>
       </c>
@@ -19913,13 +20818,16 @@
         <v>570</v>
       </c>
       <c r="R300" t="s">
+        <v>589</v>
+      </c>
+      <c r="S300" t="s">
         <v>572</v>
       </c>
-      <c r="T300" t="s">
+      <c r="U300" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>36</v>
       </c>
@@ -19972,13 +20880,16 @@
         <v>569</v>
       </c>
       <c r="R301" t="s">
+        <v>589</v>
+      </c>
+      <c r="S301" t="s">
         <v>572</v>
       </c>
-      <c r="T301" t="s">
+      <c r="U301" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -20031,13 +20942,16 @@
         <v>569</v>
       </c>
       <c r="R302" t="s">
+        <v>590</v>
+      </c>
+      <c r="S302" t="s">
         <v>571</v>
       </c>
-      <c r="S302" t="s">
+      <c r="T302" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>18</v>
       </c>
@@ -20090,13 +21004,16 @@
         <v>569</v>
       </c>
       <c r="R303" t="s">
+        <v>590</v>
+      </c>
+      <c r="S303" t="s">
         <v>571</v>
       </c>
-      <c r="S303" t="s">
+      <c r="T303" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -20149,13 +21066,16 @@
         <v>569</v>
       </c>
       <c r="R304" t="s">
+        <v>590</v>
+      </c>
+      <c r="S304" t="s">
         <v>572</v>
       </c>
-      <c r="T304" t="s">
+      <c r="U304" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -20208,13 +21128,16 @@
         <v>570</v>
       </c>
       <c r="R305" t="s">
+        <v>590</v>
+      </c>
+      <c r="S305" t="s">
         <v>572</v>
       </c>
-      <c r="T305" t="s">
+      <c r="U305" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>21</v>
       </c>
@@ -20267,13 +21190,16 @@
         <v>569</v>
       </c>
       <c r="R306" t="s">
+        <v>589</v>
+      </c>
+      <c r="S306" t="s">
         <v>572</v>
       </c>
-      <c r="T306" t="s">
+      <c r="U306" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -20326,13 +21252,16 @@
         <v>570</v>
       </c>
       <c r="R307" t="s">
+        <v>590</v>
+      </c>
+      <c r="S307" t="s">
         <v>571</v>
       </c>
-      <c r="S307" t="s">
+      <c r="T307" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>23</v>
       </c>
@@ -20385,13 +21314,16 @@
         <v>570</v>
       </c>
       <c r="R308" t="s">
+        <v>589</v>
+      </c>
+      <c r="S308" t="s">
         <v>572</v>
       </c>
-      <c r="T308" t="s">
+      <c r="U308" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>24</v>
       </c>
@@ -20444,13 +21376,16 @@
         <v>569</v>
       </c>
       <c r="R309" t="s">
+        <v>589</v>
+      </c>
+      <c r="S309" t="s">
         <v>571</v>
       </c>
-      <c r="S309" t="s">
+      <c r="T309" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>25</v>
       </c>
@@ -20503,13 +21438,16 @@
         <v>569</v>
       </c>
       <c r="R310" t="s">
+        <v>590</v>
+      </c>
+      <c r="S310" t="s">
         <v>571</v>
       </c>
-      <c r="S310" t="s">
+      <c r="T310" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>26</v>
       </c>
@@ -20562,13 +21500,16 @@
         <v>570</v>
       </c>
       <c r="R311" t="s">
+        <v>590</v>
+      </c>
+      <c r="S311" t="s">
         <v>572</v>
       </c>
-      <c r="T311" t="s">
+      <c r="U311" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -20621,13 +21562,16 @@
         <v>569</v>
       </c>
       <c r="R312" t="s">
+        <v>589</v>
+      </c>
+      <c r="S312" t="s">
         <v>571</v>
       </c>
-      <c r="S312" t="s">
+      <c r="T312" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -20680,13 +21624,16 @@
         <v>570</v>
       </c>
       <c r="R313" t="s">
+        <v>590</v>
+      </c>
+      <c r="S313" t="s">
         <v>572</v>
       </c>
-      <c r="T313" t="s">
+      <c r="U313" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>29</v>
       </c>
@@ -20739,13 +21686,16 @@
         <v>569</v>
       </c>
       <c r="R314" t="s">
+        <v>590</v>
+      </c>
+      <c r="S314" t="s">
         <v>572</v>
       </c>
-      <c r="T314" t="s">
+      <c r="U314" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -20798,13 +21748,16 @@
         <v>569</v>
       </c>
       <c r="R315" t="s">
+        <v>589</v>
+      </c>
+      <c r="S315" t="s">
         <v>572</v>
       </c>
-      <c r="T315" t="s">
+      <c r="U315" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>31</v>
       </c>
@@ -20857,13 +21810,16 @@
         <v>570</v>
       </c>
       <c r="R316" t="s">
+        <v>590</v>
+      </c>
+      <c r="S316" t="s">
         <v>572</v>
       </c>
-      <c r="T316" t="s">
+      <c r="U316" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>32</v>
       </c>
@@ -20916,13 +21872,16 @@
         <v>569</v>
       </c>
       <c r="R317" t="s">
+        <v>589</v>
+      </c>
+      <c r="S317" t="s">
         <v>572</v>
       </c>
-      <c r="T317" t="s">
+      <c r="U317" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -20975,13 +21934,16 @@
         <v>570</v>
       </c>
       <c r="R318" t="s">
+        <v>590</v>
+      </c>
+      <c r="S318" t="s">
         <v>572</v>
       </c>
-      <c r="T318" t="s">
+      <c r="U318" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>34</v>
       </c>
@@ -21034,13 +21996,16 @@
         <v>569</v>
       </c>
       <c r="R319" t="s">
+        <v>589</v>
+      </c>
+      <c r="S319" t="s">
         <v>571</v>
       </c>
-      <c r="S319" t="s">
+      <c r="T319" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>35</v>
       </c>
@@ -21093,13 +22058,16 @@
         <v>569</v>
       </c>
       <c r="R320" t="s">
+        <v>589</v>
+      </c>
+      <c r="S320" t="s">
         <v>571</v>
       </c>
-      <c r="S320" t="s">
+      <c r="T320" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>36</v>
       </c>
@@ -21152,13 +22120,16 @@
         <v>569</v>
       </c>
       <c r="R321" t="s">
+        <v>589</v>
+      </c>
+      <c r="S321" t="s">
         <v>572</v>
       </c>
-      <c r="T321" t="s">
+      <c r="U321" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -21211,13 +22182,16 @@
         <v>570</v>
       </c>
       <c r="R322" t="s">
+        <v>589</v>
+      </c>
+      <c r="S322" t="s">
         <v>571</v>
       </c>
-      <c r="S322" t="s">
+      <c r="T322" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>18</v>
       </c>
@@ -21270,13 +22244,16 @@
         <v>569</v>
       </c>
       <c r="R323" t="s">
+        <v>590</v>
+      </c>
+      <c r="S323" t="s">
         <v>572</v>
       </c>
-      <c r="T323" t="s">
+      <c r="U323" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -21329,13 +22306,16 @@
         <v>570</v>
       </c>
       <c r="R324" t="s">
+        <v>590</v>
+      </c>
+      <c r="S324" t="s">
         <v>572</v>
       </c>
-      <c r="T324" t="s">
+      <c r="U324" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -21388,13 +22368,16 @@
         <v>569</v>
       </c>
       <c r="R325" t="s">
+        <v>589</v>
+      </c>
+      <c r="S325" t="s">
         <v>571</v>
       </c>
-      <c r="S325" t="s">
+      <c r="T325" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -21447,13 +22430,16 @@
         <v>569</v>
       </c>
       <c r="R326" t="s">
+        <v>589</v>
+      </c>
+      <c r="S326" t="s">
         <v>572</v>
       </c>
-      <c r="T326" t="s">
+      <c r="U326" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -21506,13 +22492,16 @@
         <v>569</v>
       </c>
       <c r="R327" t="s">
+        <v>589</v>
+      </c>
+      <c r="S327" t="s">
         <v>572</v>
       </c>
-      <c r="T327" t="s">
+      <c r="U327" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>23</v>
       </c>
@@ -21565,13 +22554,16 @@
         <v>570</v>
       </c>
       <c r="R328" t="s">
+        <v>590</v>
+      </c>
+      <c r="S328" t="s">
         <v>572</v>
       </c>
-      <c r="T328" t="s">
+      <c r="U328" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>24</v>
       </c>
@@ -21624,13 +22616,16 @@
         <v>570</v>
       </c>
       <c r="R329" t="s">
+        <v>590</v>
+      </c>
+      <c r="S329" t="s">
         <v>572</v>
       </c>
-      <c r="T329" t="s">
+      <c r="U329" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>25</v>
       </c>
@@ -21683,13 +22678,16 @@
         <v>569</v>
       </c>
       <c r="R330" t="s">
+        <v>590</v>
+      </c>
+      <c r="S330" t="s">
         <v>572</v>
       </c>
-      <c r="T330" t="s">
+      <c r="U330" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>26</v>
       </c>
@@ -21742,13 +22740,16 @@
         <v>569</v>
       </c>
       <c r="R331" t="s">
+        <v>589</v>
+      </c>
+      <c r="S331" t="s">
         <v>571</v>
       </c>
-      <c r="S331" t="s">
+      <c r="T331" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -21801,13 +22802,16 @@
         <v>569</v>
       </c>
       <c r="R332" t="s">
+        <v>589</v>
+      </c>
+      <c r="S332" t="s">
         <v>571</v>
       </c>
-      <c r="S332" t="s">
+      <c r="T332" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>28</v>
       </c>
@@ -21860,13 +22864,16 @@
         <v>569</v>
       </c>
       <c r="R333" t="s">
+        <v>589</v>
+      </c>
+      <c r="S333" t="s">
         <v>572</v>
       </c>
-      <c r="T333" t="s">
+      <c r="U333" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -21919,13 +22926,16 @@
         <v>570</v>
       </c>
       <c r="R334" t="s">
+        <v>590</v>
+      </c>
+      <c r="S334" t="s">
         <v>572</v>
       </c>
-      <c r="T334" t="s">
+      <c r="U334" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>30</v>
       </c>
@@ -21978,13 +22988,16 @@
         <v>569</v>
       </c>
       <c r="R335" t="s">
+        <v>590</v>
+      </c>
+      <c r="S335" t="s">
         <v>572</v>
       </c>
-      <c r="T335" t="s">
+      <c r="U335" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -22037,13 +23050,16 @@
         <v>569</v>
       </c>
       <c r="R336" t="s">
+        <v>589</v>
+      </c>
+      <c r="S336" t="s">
         <v>571</v>
       </c>
-      <c r="S336" t="s">
+      <c r="T336" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>32</v>
       </c>
@@ -22096,13 +23112,16 @@
         <v>569</v>
       </c>
       <c r="R337" t="s">
+        <v>589</v>
+      </c>
+      <c r="S337" t="s">
         <v>572</v>
       </c>
-      <c r="T337" t="s">
+      <c r="U337" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>33</v>
       </c>
@@ -22155,13 +23174,16 @@
         <v>569</v>
       </c>
       <c r="R338" t="s">
+        <v>589</v>
+      </c>
+      <c r="S338" t="s">
         <v>572</v>
       </c>
-      <c r="T338" t="s">
+      <c r="U338" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -22214,13 +23236,16 @@
         <v>569</v>
       </c>
       <c r="R339" t="s">
+        <v>589</v>
+      </c>
+      <c r="S339" t="s">
         <v>572</v>
       </c>
-      <c r="T339" t="s">
+      <c r="U339" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>35</v>
       </c>
@@ -22273,13 +23298,16 @@
         <v>569</v>
       </c>
       <c r="R340" t="s">
+        <v>589</v>
+      </c>
+      <c r="S340" t="s">
         <v>571</v>
       </c>
-      <c r="S340" t="s">
+      <c r="T340" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>36</v>
       </c>
@@ -22332,13 +23360,16 @@
         <v>569</v>
       </c>
       <c r="R341" t="s">
+        <v>589</v>
+      </c>
+      <c r="S341" t="s">
         <v>572</v>
       </c>
-      <c r="T341" t="s">
+      <c r="U341" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -22391,13 +23422,16 @@
         <v>569</v>
       </c>
       <c r="R342" t="s">
+        <v>589</v>
+      </c>
+      <c r="S342" t="s">
         <v>571</v>
       </c>
-      <c r="S342" t="s">
+      <c r="T342" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>18</v>
       </c>
@@ -22450,13 +23484,16 @@
         <v>570</v>
       </c>
       <c r="R343" t="s">
+        <v>590</v>
+      </c>
+      <c r="S343" t="s">
         <v>572</v>
       </c>
-      <c r="T343" t="s">
+      <c r="U343" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -22509,13 +23546,16 @@
         <v>570</v>
       </c>
       <c r="R344" t="s">
+        <v>589</v>
+      </c>
+      <c r="S344" t="s">
         <v>571</v>
       </c>
-      <c r="S344" t="s">
+      <c r="T344" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>20</v>
       </c>
@@ -22568,13 +23608,16 @@
         <v>570</v>
       </c>
       <c r="R345" t="s">
+        <v>589</v>
+      </c>
+      <c r="S345" t="s">
         <v>571</v>
       </c>
-      <c r="S345" t="s">
+      <c r="T345" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>21</v>
       </c>
@@ -22627,13 +23670,16 @@
         <v>569</v>
       </c>
       <c r="R346" t="s">
+        <v>590</v>
+      </c>
+      <c r="S346" t="s">
         <v>572</v>
       </c>
-      <c r="T346" t="s">
+      <c r="U346" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -22686,13 +23732,16 @@
         <v>569</v>
       </c>
       <c r="R347" t="s">
+        <v>589</v>
+      </c>
+      <c r="S347" t="s">
         <v>571</v>
       </c>
-      <c r="S347" t="s">
+      <c r="T347" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>23</v>
       </c>
@@ -22745,13 +23794,16 @@
         <v>569</v>
       </c>
       <c r="R348" t="s">
+        <v>589</v>
+      </c>
+      <c r="S348" t="s">
         <v>572</v>
       </c>
-      <c r="T348" t="s">
+      <c r="U348" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>24</v>
       </c>
@@ -22804,13 +23856,16 @@
         <v>570</v>
       </c>
       <c r="R349" t="s">
+        <v>590</v>
+      </c>
+      <c r="S349" t="s">
         <v>572</v>
       </c>
-      <c r="T349" t="s">
+      <c r="U349" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -22863,13 +23918,16 @@
         <v>570</v>
       </c>
       <c r="R350" t="s">
+        <v>589</v>
+      </c>
+      <c r="S350" t="s">
         <v>571</v>
       </c>
-      <c r="S350" t="s">
+      <c r="T350" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -22922,13 +23980,16 @@
         <v>569</v>
       </c>
       <c r="R351" t="s">
+        <v>590</v>
+      </c>
+      <c r="S351" t="s">
         <v>572</v>
       </c>
-      <c r="T351" t="s">
+      <c r="U351" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -22981,13 +24042,16 @@
         <v>569</v>
       </c>
       <c r="R352" t="s">
+        <v>589</v>
+      </c>
+      <c r="S352" t="s">
         <v>571</v>
       </c>
-      <c r="S352" t="s">
+      <c r="T352" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>28</v>
       </c>
@@ -23040,13 +24104,16 @@
         <v>569</v>
       </c>
       <c r="R353" t="s">
+        <v>589</v>
+      </c>
+      <c r="S353" t="s">
         <v>571</v>
       </c>
-      <c r="S353" t="s">
+      <c r="T353" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>29</v>
       </c>
@@ -23099,13 +24166,16 @@
         <v>569</v>
       </c>
       <c r="R354" t="s">
+        <v>589</v>
+      </c>
+      <c r="S354" t="s">
         <v>571</v>
       </c>
-      <c r="S354" t="s">
+      <c r="T354" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>30</v>
       </c>
@@ -23158,13 +24228,16 @@
         <v>570</v>
       </c>
       <c r="R355" t="s">
+        <v>589</v>
+      </c>
+      <c r="S355" t="s">
         <v>572</v>
       </c>
-      <c r="T355" t="s">
+      <c r="U355" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>31</v>
       </c>
@@ -23217,13 +24290,16 @@
         <v>569</v>
       </c>
       <c r="R356" t="s">
+        <v>589</v>
+      </c>
+      <c r="S356" t="s">
         <v>572</v>
       </c>
-      <c r="T356" t="s">
+      <c r="U356" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -23276,13 +24352,16 @@
         <v>570</v>
       </c>
       <c r="R357" t="s">
+        <v>589</v>
+      </c>
+      <c r="S357" t="s">
         <v>571</v>
       </c>
-      <c r="S357" t="s">
+      <c r="T357" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>33</v>
       </c>
@@ -23335,13 +24414,16 @@
         <v>570</v>
       </c>
       <c r="R358" t="s">
+        <v>589</v>
+      </c>
+      <c r="S358" t="s">
         <v>572</v>
       </c>
-      <c r="T358" t="s">
+      <c r="U358" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>34</v>
       </c>
@@ -23394,13 +24476,16 @@
         <v>569</v>
       </c>
       <c r="R359" t="s">
+        <v>589</v>
+      </c>
+      <c r="S359" t="s">
         <v>571</v>
       </c>
-      <c r="S359" t="s">
+      <c r="T359" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -23453,13 +24538,16 @@
         <v>569</v>
       </c>
       <c r="R360" t="s">
+        <v>589</v>
+      </c>
+      <c r="S360" t="s">
         <v>572</v>
       </c>
-      <c r="T360" t="s">
+      <c r="U360" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>36</v>
       </c>
@@ -23512,13 +24600,16 @@
         <v>570</v>
       </c>
       <c r="R361" t="s">
+        <v>589</v>
+      </c>
+      <c r="S361" t="s">
         <v>571</v>
       </c>
-      <c r="S361" t="s">
+      <c r="T361" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -23571,13 +24662,16 @@
         <v>569</v>
       </c>
       <c r="R362" t="s">
+        <v>589</v>
+      </c>
+      <c r="S362" t="s">
         <v>571</v>
       </c>
-      <c r="S362" t="s">
+      <c r="T362" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>18</v>
       </c>
@@ -23630,13 +24724,16 @@
         <v>570</v>
       </c>
       <c r="R363" t="s">
+        <v>589</v>
+      </c>
+      <c r="S363" t="s">
         <v>572</v>
       </c>
-      <c r="T363" t="s">
+      <c r="U363" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>19</v>
       </c>
@@ -23689,13 +24786,16 @@
         <v>569</v>
       </c>
       <c r="R364" t="s">
+        <v>589</v>
+      </c>
+      <c r="S364" t="s">
         <v>571</v>
       </c>
-      <c r="S364" t="s">
+      <c r="T364" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -23748,13 +24848,16 @@
         <v>569</v>
       </c>
       <c r="R365" t="s">
+        <v>589</v>
+      </c>
+      <c r="S365" t="s">
         <v>572</v>
       </c>
-      <c r="T365" t="s">
+      <c r="U365" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>21</v>
       </c>
@@ -23807,13 +24910,16 @@
         <v>570</v>
       </c>
       <c r="R366" t="s">
+        <v>590</v>
+      </c>
+      <c r="S366" t="s">
         <v>572</v>
       </c>
-      <c r="T366" t="s">
+      <c r="U366" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>22</v>
       </c>
@@ -23866,13 +24972,16 @@
         <v>569</v>
       </c>
       <c r="R367" t="s">
+        <v>590</v>
+      </c>
+      <c r="S367" t="s">
         <v>572</v>
       </c>
-      <c r="T367" t="s">
+      <c r="U367" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>23</v>
       </c>
@@ -23925,13 +25034,16 @@
         <v>570</v>
       </c>
       <c r="R368" t="s">
+        <v>590</v>
+      </c>
+      <c r="S368" t="s">
         <v>572</v>
       </c>
-      <c r="T368" t="s">
+      <c r="U368" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>24</v>
       </c>
@@ -23984,13 +25096,16 @@
         <v>569</v>
       </c>
       <c r="R369" t="s">
+        <v>589</v>
+      </c>
+      <c r="S369" t="s">
         <v>571</v>
       </c>
-      <c r="S369" t="s">
+      <c r="T369" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -24043,13 +25158,16 @@
         <v>569</v>
       </c>
       <c r="R370" t="s">
+        <v>589</v>
+      </c>
+      <c r="S370" t="s">
         <v>571</v>
       </c>
-      <c r="S370" t="s">
+      <c r="T370" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>26</v>
       </c>
@@ -24102,13 +25220,16 @@
         <v>569</v>
       </c>
       <c r="R371" t="s">
+        <v>589</v>
+      </c>
+      <c r="S371" t="s">
         <v>571</v>
       </c>
-      <c r="S371" t="s">
+      <c r="T371" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -24161,13 +25282,16 @@
         <v>570</v>
       </c>
       <c r="R372" t="s">
+        <v>589</v>
+      </c>
+      <c r="S372" t="s">
         <v>572</v>
       </c>
-      <c r="T372" t="s">
+      <c r="U372" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>28</v>
       </c>
@@ -24220,13 +25344,16 @@
         <v>569</v>
       </c>
       <c r="R373" t="s">
+        <v>589</v>
+      </c>
+      <c r="S373" t="s">
         <v>571</v>
       </c>
-      <c r="S373" t="s">
+      <c r="T373" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>29</v>
       </c>
@@ -24279,13 +25406,16 @@
         <v>570</v>
       </c>
       <c r="R374" t="s">
+        <v>589</v>
+      </c>
+      <c r="S374" t="s">
         <v>571</v>
       </c>
-      <c r="S374" t="s">
+      <c r="T374" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>30</v>
       </c>
@@ -24338,13 +25468,16 @@
         <v>569</v>
       </c>
       <c r="R375" t="s">
+        <v>589</v>
+      </c>
+      <c r="S375" t="s">
         <v>571</v>
       </c>
-      <c r="S375" t="s">
+      <c r="T375" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>31</v>
       </c>
@@ -24397,13 +25530,16 @@
         <v>569</v>
       </c>
       <c r="R376" t="s">
+        <v>589</v>
+      </c>
+      <c r="S376" t="s">
         <v>571</v>
       </c>
-      <c r="S376" t="s">
+      <c r="T376" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -24456,13 +25592,16 @@
         <v>569</v>
       </c>
       <c r="R377" t="s">
+        <v>589</v>
+      </c>
+      <c r="S377" t="s">
         <v>571</v>
       </c>
-      <c r="S377" t="s">
+      <c r="T377" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>33</v>
       </c>
@@ -24515,13 +25654,16 @@
         <v>570</v>
       </c>
       <c r="R378" t="s">
+        <v>590</v>
+      </c>
+      <c r="S378" t="s">
         <v>572</v>
       </c>
-      <c r="T378" t="s">
+      <c r="U378" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>34</v>
       </c>
@@ -24574,13 +25716,16 @@
         <v>570</v>
       </c>
       <c r="R379" t="s">
+        <v>589</v>
+      </c>
+      <c r="S379" t="s">
         <v>572</v>
       </c>
-      <c r="T379" t="s">
+      <c r="U379" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>35</v>
       </c>
@@ -24633,13 +25778,16 @@
         <v>569</v>
       </c>
       <c r="R380" t="s">
+        <v>590</v>
+      </c>
+      <c r="S380" t="s">
         <v>572</v>
       </c>
-      <c r="T380" t="s">
+      <c r="U380" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>36</v>
       </c>
@@ -24692,13 +25840,16 @@
         <v>569</v>
       </c>
       <c r="R381" t="s">
+        <v>589</v>
+      </c>
+      <c r="S381" t="s">
         <v>571</v>
       </c>
-      <c r="S381" t="s">
+      <c r="T381" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -24751,13 +25902,16 @@
         <v>569</v>
       </c>
       <c r="R382" t="s">
+        <v>589</v>
+      </c>
+      <c r="S382" t="s">
         <v>571</v>
       </c>
-      <c r="S382" t="s">
+      <c r="T382" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -24810,13 +25964,16 @@
         <v>569</v>
       </c>
       <c r="R383" t="s">
+        <v>590</v>
+      </c>
+      <c r="S383" t="s">
         <v>572</v>
       </c>
-      <c r="T383" t="s">
+      <c r="U383" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>19</v>
       </c>
@@ -24869,13 +26026,16 @@
         <v>570</v>
       </c>
       <c r="R384" t="s">
+        <v>590</v>
+      </c>
+      <c r="S384" t="s">
         <v>572</v>
       </c>
-      <c r="T384" t="s">
+      <c r="U384" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>20</v>
       </c>
@@ -24928,13 +26088,16 @@
         <v>569</v>
       </c>
       <c r="R385" t="s">
+        <v>589</v>
+      </c>
+      <c r="S385" t="s">
         <v>572</v>
       </c>
-      <c r="T385" t="s">
+      <c r="U385" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>21</v>
       </c>
@@ -24987,13 +26150,16 @@
         <v>569</v>
       </c>
       <c r="R386" t="s">
+        <v>590</v>
+      </c>
+      <c r="S386" t="s">
         <v>572</v>
       </c>
-      <c r="T386" t="s">
+      <c r="U386" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>22</v>
       </c>
@@ -25046,13 +26212,16 @@
         <v>569</v>
       </c>
       <c r="R387" t="s">
+        <v>589</v>
+      </c>
+      <c r="S387" t="s">
         <v>571</v>
       </c>
-      <c r="S387" t="s">
+      <c r="T387" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>23</v>
       </c>
@@ -25105,13 +26274,16 @@
         <v>569</v>
       </c>
       <c r="R388" t="s">
+        <v>590</v>
+      </c>
+      <c r="S388" t="s">
         <v>572</v>
       </c>
-      <c r="T388" t="s">
+      <c r="U388" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>24</v>
       </c>
@@ -25164,13 +26336,16 @@
         <v>569</v>
       </c>
       <c r="R389" t="s">
+        <v>590</v>
+      </c>
+      <c r="S389" t="s">
         <v>572</v>
       </c>
-      <c r="T389" t="s">
+      <c r="U389" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>25</v>
       </c>
@@ -25223,13 +26398,16 @@
         <v>569</v>
       </c>
       <c r="R390" t="s">
+        <v>589</v>
+      </c>
+      <c r="S390" t="s">
         <v>571</v>
       </c>
-      <c r="S390" t="s">
+      <c r="T390" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>26</v>
       </c>
@@ -25282,13 +26460,16 @@
         <v>569</v>
       </c>
       <c r="R391" t="s">
+        <v>589</v>
+      </c>
+      <c r="S391" t="s">
         <v>572</v>
       </c>
-      <c r="T391" t="s">
+      <c r="U391" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>27</v>
       </c>
@@ -25341,13 +26522,16 @@
         <v>569</v>
       </c>
       <c r="R392" t="s">
+        <v>589</v>
+      </c>
+      <c r="S392" t="s">
         <v>571</v>
       </c>
-      <c r="S392" t="s">
+      <c r="T392" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>28</v>
       </c>
@@ -25400,13 +26584,16 @@
         <v>570</v>
       </c>
       <c r="R393" t="s">
+        <v>590</v>
+      </c>
+      <c r="S393" t="s">
         <v>572</v>
       </c>
-      <c r="T393" t="s">
+      <c r="U393" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>29</v>
       </c>
@@ -25459,13 +26646,16 @@
         <v>570</v>
       </c>
       <c r="R394" t="s">
+        <v>589</v>
+      </c>
+      <c r="S394" t="s">
         <v>571</v>
       </c>
-      <c r="S394" t="s">
+      <c r="T394" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>30</v>
       </c>
@@ -25518,13 +26708,16 @@
         <v>570</v>
       </c>
       <c r="R395" t="s">
+        <v>589</v>
+      </c>
+      <c r="S395" t="s">
         <v>571</v>
       </c>
-      <c r="S395" t="s">
+      <c r="T395" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>31</v>
       </c>
@@ -25577,13 +26770,16 @@
         <v>569</v>
       </c>
       <c r="R396" t="s">
+        <v>589</v>
+      </c>
+      <c r="S396" t="s">
         <v>571</v>
       </c>
-      <c r="S396" t="s">
+      <c r="T396" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>32</v>
       </c>
@@ -25636,13 +26832,16 @@
         <v>569</v>
       </c>
       <c r="R397" t="s">
+        <v>589</v>
+      </c>
+      <c r="S397" t="s">
         <v>571</v>
       </c>
-      <c r="S397" t="s">
+      <c r="T397" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>33</v>
       </c>
@@ -25695,13 +26894,16 @@
         <v>569</v>
       </c>
       <c r="R398" t="s">
+        <v>590</v>
+      </c>
+      <c r="S398" t="s">
         <v>572</v>
       </c>
-      <c r="T398" t="s">
+      <c r="U398" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -25754,13 +26956,16 @@
         <v>570</v>
       </c>
       <c r="R399" t="s">
+        <v>590</v>
+      </c>
+      <c r="S399" t="s">
         <v>572</v>
       </c>
-      <c r="T399" t="s">
+      <c r="U399" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>35</v>
       </c>
@@ -25813,13 +27018,16 @@
         <v>570</v>
       </c>
       <c r="R400" t="s">
+        <v>589</v>
+      </c>
+      <c r="S400" t="s">
         <v>572</v>
       </c>
-      <c r="T400" t="s">
+      <c r="U400" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>36</v>
       </c>
@@ -25872,13 +27080,16 @@
         <v>569</v>
       </c>
       <c r="R401" t="s">
+        <v>589</v>
+      </c>
+      <c r="S401" t="s">
         <v>572</v>
       </c>
-      <c r="T401" t="s">
+      <c r="U401" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>17</v>
       </c>
@@ -25931,13 +27142,16 @@
         <v>569</v>
       </c>
       <c r="R402" t="s">
+        <v>589</v>
+      </c>
+      <c r="S402" t="s">
         <v>571</v>
       </c>
-      <c r="S402" t="s">
+      <c r="T402" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>18</v>
       </c>
@@ -25990,13 +27204,16 @@
         <v>569</v>
       </c>
       <c r="R403" t="s">
+        <v>589</v>
+      </c>
+      <c r="S403" t="s">
         <v>572</v>
       </c>
-      <c r="T403" t="s">
+      <c r="U403" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>19</v>
       </c>
@@ -26049,13 +27266,16 @@
         <v>569</v>
       </c>
       <c r="R404" t="s">
+        <v>589</v>
+      </c>
+      <c r="S404" t="s">
         <v>571</v>
       </c>
-      <c r="S404" t="s">
+      <c r="T404" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>20</v>
       </c>
@@ -26108,13 +27328,16 @@
         <v>570</v>
       </c>
       <c r="R405" t="s">
+        <v>589</v>
+      </c>
+      <c r="S405" t="s">
         <v>572</v>
       </c>
-      <c r="T405" t="s">
+      <c r="U405" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>21</v>
       </c>
@@ -26167,13 +27390,16 @@
         <v>569</v>
       </c>
       <c r="R406" t="s">
+        <v>590</v>
+      </c>
+      <c r="S406" t="s">
         <v>572</v>
       </c>
-      <c r="T406" t="s">
+      <c r="U406" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>22</v>
       </c>
@@ -26226,13 +27452,16 @@
         <v>570</v>
       </c>
       <c r="R407" t="s">
+        <v>590</v>
+      </c>
+      <c r="S407" t="s">
         <v>572</v>
       </c>
-      <c r="T407" t="s">
+      <c r="U407" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>23</v>
       </c>
@@ -26285,13 +27514,16 @@
         <v>570</v>
       </c>
       <c r="R408" t="s">
+        <v>589</v>
+      </c>
+      <c r="S408" t="s">
         <v>571</v>
       </c>
-      <c r="S408" t="s">
+      <c r="T408" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -26344,13 +27576,16 @@
         <v>569</v>
       </c>
       <c r="R409" t="s">
+        <v>590</v>
+      </c>
+      <c r="S409" t="s">
         <v>572</v>
       </c>
-      <c r="T409" t="s">
+      <c r="U409" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>25</v>
       </c>
@@ -26403,13 +27638,16 @@
         <v>569</v>
       </c>
       <c r="R410" t="s">
+        <v>590</v>
+      </c>
+      <c r="S410" t="s">
         <v>572</v>
       </c>
-      <c r="T410" t="s">
+      <c r="U410" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>26</v>
       </c>
@@ -26462,13 +27700,16 @@
         <v>570</v>
       </c>
       <c r="R411" t="s">
+        <v>589</v>
+      </c>
+      <c r="S411" t="s">
         <v>571</v>
       </c>
-      <c r="S411" t="s">
+      <c r="T411" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -26521,13 +27762,16 @@
         <v>569</v>
       </c>
       <c r="R412" t="s">
+        <v>589</v>
+      </c>
+      <c r="S412" t="s">
         <v>572</v>
       </c>
-      <c r="T412" t="s">
+      <c r="U412" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>28</v>
       </c>
@@ -26580,13 +27824,16 @@
         <v>570</v>
       </c>
       <c r="R413" t="s">
+        <v>590</v>
+      </c>
+      <c r="S413" t="s">
         <v>572</v>
       </c>
-      <c r="T413" t="s">
+      <c r="U413" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>29</v>
       </c>
@@ -26639,13 +27886,16 @@
         <v>569</v>
       </c>
       <c r="R414" t="s">
+        <v>589</v>
+      </c>
+      <c r="S414" t="s">
         <v>571</v>
       </c>
-      <c r="S414" t="s">
+      <c r="T414" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>30</v>
       </c>
@@ -26698,13 +27948,16 @@
         <v>569</v>
       </c>
       <c r="R415" t="s">
+        <v>590</v>
+      </c>
+      <c r="S415" t="s">
         <v>572</v>
       </c>
-      <c r="T415" t="s">
+      <c r="U415" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>31</v>
       </c>
@@ -26757,13 +28010,16 @@
         <v>570</v>
       </c>
       <c r="R416" t="s">
+        <v>589</v>
+      </c>
+      <c r="S416" t="s">
         <v>571</v>
       </c>
-      <c r="S416" t="s">
+      <c r="T416" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>32</v>
       </c>
@@ -26816,13 +28072,16 @@
         <v>569</v>
       </c>
       <c r="R417" t="s">
+        <v>590</v>
+      </c>
+      <c r="S417" t="s">
         <v>572</v>
       </c>
-      <c r="T417" t="s">
+      <c r="U417" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>33</v>
       </c>
@@ -26875,13 +28134,16 @@
         <v>570</v>
       </c>
       <c r="R418" t="s">
+        <v>589</v>
+      </c>
+      <c r="S418" t="s">
         <v>572</v>
       </c>
-      <c r="T418" t="s">
+      <c r="U418" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>34</v>
       </c>
@@ -26934,13 +28196,16 @@
         <v>569</v>
       </c>
       <c r="R419" t="s">
+        <v>589</v>
+      </c>
+      <c r="S419" t="s">
         <v>572</v>
       </c>
-      <c r="T419" t="s">
+      <c r="U419" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>35</v>
       </c>
@@ -26993,13 +28258,16 @@
         <v>569</v>
       </c>
       <c r="R420" t="s">
+        <v>589</v>
+      </c>
+      <c r="S420" t="s">
         <v>572</v>
       </c>
-      <c r="T420" t="s">
+      <c r="U420" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>36</v>
       </c>
@@ -27052,13 +28320,16 @@
         <v>569</v>
       </c>
       <c r="R421" t="s">
+        <v>589</v>
+      </c>
+      <c r="S421" t="s">
         <v>571</v>
       </c>
-      <c r="S421" t="s">
+      <c r="T421" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -27111,13 +28382,16 @@
         <v>570</v>
       </c>
       <c r="R422" t="s">
+        <v>589</v>
+      </c>
+      <c r="S422" t="s">
         <v>572</v>
       </c>
-      <c r="T422" t="s">
+      <c r="U422" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>18</v>
       </c>
@@ -27170,13 +28444,16 @@
         <v>569</v>
       </c>
       <c r="R423" t="s">
+        <v>589</v>
+      </c>
+      <c r="S423" t="s">
         <v>571</v>
       </c>
-      <c r="S423" t="s">
+      <c r="T423" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -27229,13 +28506,16 @@
         <v>570</v>
       </c>
       <c r="R424" t="s">
+        <v>589</v>
+      </c>
+      <c r="S424" t="s">
         <v>571</v>
       </c>
-      <c r="S424" t="s">
+      <c r="T424" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>20</v>
       </c>
@@ -27288,13 +28568,16 @@
         <v>569</v>
       </c>
       <c r="R425" t="s">
+        <v>589</v>
+      </c>
+      <c r="S425" t="s">
         <v>572</v>
       </c>
-      <c r="T425" t="s">
+      <c r="U425" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>21</v>
       </c>
@@ -27347,13 +28630,16 @@
         <v>569</v>
       </c>
       <c r="R426" t="s">
+        <v>590</v>
+      </c>
+      <c r="S426" t="s">
         <v>572</v>
       </c>
-      <c r="T426" t="s">
+      <c r="U426" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>22</v>
       </c>
@@ -27406,13 +28692,16 @@
         <v>569</v>
       </c>
       <c r="R427" t="s">
+        <v>589</v>
+      </c>
+      <c r="S427" t="s">
         <v>571</v>
       </c>
-      <c r="S427" t="s">
+      <c r="T427" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>23</v>
       </c>
@@ -27465,13 +28754,16 @@
         <v>570</v>
       </c>
       <c r="R428" t="s">
+        <v>589</v>
+      </c>
+      <c r="S428" t="s">
         <v>572</v>
       </c>
-      <c r="T428" t="s">
+      <c r="U428" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>24</v>
       </c>
@@ -27524,13 +28816,16 @@
         <v>570</v>
       </c>
       <c r="R429" t="s">
+        <v>589</v>
+      </c>
+      <c r="S429" t="s">
         <v>572</v>
       </c>
-      <c r="T429" t="s">
+      <c r="U429" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>25</v>
       </c>
@@ -27583,13 +28878,16 @@
         <v>569</v>
       </c>
       <c r="R430" t="s">
+        <v>590</v>
+      </c>
+      <c r="S430" t="s">
         <v>572</v>
       </c>
-      <c r="T430" t="s">
+      <c r="U430" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>26</v>
       </c>
@@ -27642,13 +28940,16 @@
         <v>569</v>
       </c>
       <c r="R431" t="s">
+        <v>589</v>
+      </c>
+      <c r="S431" t="s">
         <v>571</v>
       </c>
-      <c r="S431" t="s">
+      <c r="T431" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>27</v>
       </c>
@@ -27701,13 +29002,16 @@
         <v>569</v>
       </c>
       <c r="R432" t="s">
+        <v>590</v>
+      </c>
+      <c r="S432" t="s">
         <v>572</v>
       </c>
-      <c r="T432" t="s">
+      <c r="U432" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>28</v>
       </c>
@@ -27760,13 +29064,16 @@
         <v>569</v>
       </c>
       <c r="R433" t="s">
+        <v>589</v>
+      </c>
+      <c r="S433" t="s">
         <v>572</v>
       </c>
-      <c r="T433" t="s">
+      <c r="U433" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>29</v>
       </c>
@@ -27819,13 +29126,16 @@
         <v>570</v>
       </c>
       <c r="R434" t="s">
+        <v>590</v>
+      </c>
+      <c r="S434" t="s">
         <v>572</v>
       </c>
-      <c r="T434" t="s">
+      <c r="U434" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>30</v>
       </c>
@@ -27878,13 +29188,16 @@
         <v>569</v>
       </c>
       <c r="R435" t="s">
+        <v>589</v>
+      </c>
+      <c r="S435" t="s">
         <v>572</v>
       </c>
-      <c r="T435" t="s">
+      <c r="U435" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>31</v>
       </c>
@@ -27937,13 +29250,16 @@
         <v>569</v>
       </c>
       <c r="R436" t="s">
+        <v>589</v>
+      </c>
+      <c r="S436" t="s">
         <v>571</v>
       </c>
-      <c r="S436" t="s">
+      <c r="T436" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>32</v>
       </c>
@@ -27996,13 +29312,16 @@
         <v>569</v>
       </c>
       <c r="R437" t="s">
+        <v>590</v>
+      </c>
+      <c r="S437" t="s">
         <v>572</v>
       </c>
-      <c r="T437" t="s">
+      <c r="U437" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>33</v>
       </c>
@@ -28055,13 +29374,16 @@
         <v>569</v>
       </c>
       <c r="R438" t="s">
+        <v>590</v>
+      </c>
+      <c r="S438" t="s">
         <v>572</v>
       </c>
-      <c r="T438" t="s">
+      <c r="U438" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>34</v>
       </c>
@@ -28114,13 +29436,16 @@
         <v>569</v>
       </c>
       <c r="R439" t="s">
+        <v>590</v>
+      </c>
+      <c r="S439" t="s">
         <v>572</v>
       </c>
-      <c r="T439" t="s">
+      <c r="U439" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>35</v>
       </c>
@@ -28173,13 +29498,16 @@
         <v>569</v>
       </c>
       <c r="R440" t="s">
+        <v>589</v>
+      </c>
+      <c r="S440" t="s">
         <v>571</v>
       </c>
-      <c r="S440" t="s">
+      <c r="T440" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>36</v>
       </c>
@@ -28232,13 +29560,16 @@
         <v>569</v>
       </c>
       <c r="R441" t="s">
+        <v>590</v>
+      </c>
+      <c r="S441" t="s">
         <v>572</v>
       </c>
-      <c r="T441" t="s">
+      <c r="U441" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>17</v>
       </c>
@@ -28291,13 +29622,16 @@
         <v>569</v>
       </c>
       <c r="R442" t="s">
+        <v>589</v>
+      </c>
+      <c r="S442" t="s">
         <v>572</v>
       </c>
-      <c r="T442" t="s">
+      <c r="U442" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>18</v>
       </c>
@@ -28350,13 +29684,16 @@
         <v>570</v>
       </c>
       <c r="R443" t="s">
+        <v>589</v>
+      </c>
+      <c r="S443" t="s">
         <v>571</v>
       </c>
-      <c r="S443" t="s">
+      <c r="T443" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>19</v>
       </c>
@@ -28409,13 +29746,16 @@
         <v>570</v>
       </c>
       <c r="R444" t="s">
+        <v>589</v>
+      </c>
+      <c r="S444" t="s">
         <v>572</v>
       </c>
-      <c r="T444" t="s">
+      <c r="U444" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>20</v>
       </c>
@@ -28468,13 +29808,16 @@
         <v>570</v>
       </c>
       <c r="R445" t="s">
+        <v>590</v>
+      </c>
+      <c r="S445" t="s">
         <v>572</v>
       </c>
-      <c r="T445" t="s">
+      <c r="U445" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>21</v>
       </c>
@@ -28527,13 +29870,16 @@
         <v>569</v>
       </c>
       <c r="R446" t="s">
+        <v>589</v>
+      </c>
+      <c r="S446" t="s">
         <v>571</v>
       </c>
-      <c r="S446" t="s">
+      <c r="T446" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>22</v>
       </c>
@@ -28586,13 +29932,16 @@
         <v>569</v>
       </c>
       <c r="R447" t="s">
+        <v>589</v>
+      </c>
+      <c r="S447" t="s">
         <v>571</v>
       </c>
-      <c r="S447" t="s">
+      <c r="T447" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>23</v>
       </c>
@@ -28645,13 +29994,16 @@
         <v>569</v>
       </c>
       <c r="R448" t="s">
+        <v>589</v>
+      </c>
+      <c r="S448" t="s">
         <v>572</v>
       </c>
-      <c r="T448" t="s">
+      <c r="U448" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>24</v>
       </c>
@@ -28704,13 +30056,16 @@
         <v>570</v>
       </c>
       <c r="R449" t="s">
+        <v>590</v>
+      </c>
+      <c r="S449" t="s">
         <v>572</v>
       </c>
-      <c r="T449" t="s">
+      <c r="U449" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>25</v>
       </c>
@@ -28763,13 +30118,16 @@
         <v>570</v>
       </c>
       <c r="R450" t="s">
+        <v>590</v>
+      </c>
+      <c r="S450" t="s">
         <v>572</v>
       </c>
-      <c r="T450" t="s">
+      <c r="U450" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>26</v>
       </c>
@@ -28822,13 +30180,16 @@
         <v>569</v>
       </c>
       <c r="R451" t="s">
+        <v>590</v>
+      </c>
+      <c r="S451" t="s">
         <v>572</v>
       </c>
-      <c r="T451" t="s">
+      <c r="U451" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>27</v>
       </c>
@@ -28881,13 +30242,16 @@
         <v>569</v>
       </c>
       <c r="R452" t="s">
+        <v>590</v>
+      </c>
+      <c r="S452" t="s">
         <v>572</v>
       </c>
-      <c r="T452" t="s">
+      <c r="U452" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>28</v>
       </c>
@@ -28940,13 +30304,16 @@
         <v>569</v>
       </c>
       <c r="R453" t="s">
+        <v>589</v>
+      </c>
+      <c r="S453" t="s">
         <v>571</v>
       </c>
-      <c r="S453" t="s">
+      <c r="T453" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>29</v>
       </c>
@@ -28999,13 +30366,16 @@
         <v>569</v>
       </c>
       <c r="R454" t="s">
+        <v>589</v>
+      </c>
+      <c r="S454" t="s">
         <v>572</v>
       </c>
-      <c r="T454" t="s">
+      <c r="U454" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>30</v>
       </c>
@@ -29058,13 +30428,16 @@
         <v>570</v>
       </c>
       <c r="R455" t="s">
+        <v>590</v>
+      </c>
+      <c r="S455" t="s">
         <v>572</v>
       </c>
-      <c r="T455" t="s">
+      <c r="U455" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>31</v>
       </c>
@@ -29117,13 +30490,16 @@
         <v>569</v>
       </c>
       <c r="R456" t="s">
+        <v>590</v>
+      </c>
+      <c r="S456" t="s">
         <v>572</v>
       </c>
-      <c r="T456" t="s">
+      <c r="U456" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>32</v>
       </c>
@@ -29176,13 +30552,16 @@
         <v>570</v>
       </c>
       <c r="R457" t="s">
+        <v>589</v>
+      </c>
+      <c r="S457" t="s">
         <v>571</v>
       </c>
-      <c r="S457" t="s">
+      <c r="T457" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>33</v>
       </c>
@@ -29235,13 +30614,16 @@
         <v>570</v>
       </c>
       <c r="R458" t="s">
+        <v>589</v>
+      </c>
+      <c r="S458" t="s">
         <v>571</v>
       </c>
-      <c r="S458" t="s">
+      <c r="T458" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>34</v>
       </c>
@@ -29294,13 +30676,16 @@
         <v>569</v>
       </c>
       <c r="R459" t="s">
+        <v>589</v>
+      </c>
+      <c r="S459" t="s">
         <v>571</v>
       </c>
-      <c r="S459" t="s">
+      <c r="T459" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>35</v>
       </c>
@@ -29353,13 +30738,16 @@
         <v>569</v>
       </c>
       <c r="R460" t="s">
+        <v>589</v>
+      </c>
+      <c r="S460" t="s">
         <v>572</v>
       </c>
-      <c r="T460" t="s">
+      <c r="U460" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>36</v>
       </c>
@@ -29412,13 +30800,16 @@
         <v>570</v>
       </c>
       <c r="R461" t="s">
+        <v>589</v>
+      </c>
+      <c r="S461" t="s">
         <v>571</v>
       </c>
-      <c r="S461" t="s">
+      <c r="T461" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>17</v>
       </c>
@@ -29471,13 +30862,16 @@
         <v>569</v>
       </c>
       <c r="R462" t="s">
+        <v>590</v>
+      </c>
+      <c r="S462" t="s">
         <v>572</v>
       </c>
-      <c r="T462" t="s">
+      <c r="U462" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>18</v>
       </c>
@@ -29530,13 +30924,16 @@
         <v>570</v>
       </c>
       <c r="R463" t="s">
+        <v>589</v>
+      </c>
+      <c r="S463" t="s">
         <v>572</v>
       </c>
-      <c r="T463" t="s">
+      <c r="U463" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>19</v>
       </c>
@@ -29589,13 +30986,16 @@
         <v>569</v>
       </c>
       <c r="R464" t="s">
+        <v>589</v>
+      </c>
+      <c r="S464" t="s">
         <v>571</v>
       </c>
-      <c r="S464" t="s">
+      <c r="T464" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>20</v>
       </c>
@@ -29648,13 +31048,16 @@
         <v>569</v>
       </c>
       <c r="R465" t="s">
+        <v>589</v>
+      </c>
+      <c r="S465" t="s">
         <v>572</v>
       </c>
-      <c r="T465" t="s">
+      <c r="U465" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>21</v>
       </c>
@@ -29707,13 +31110,16 @@
         <v>570</v>
       </c>
       <c r="R466" t="s">
+        <v>589</v>
+      </c>
+      <c r="S466" t="s">
         <v>572</v>
       </c>
-      <c r="T466" t="s">
+      <c r="U466" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>22</v>
       </c>
@@ -29766,13 +31172,16 @@
         <v>569</v>
       </c>
       <c r="R467" t="s">
+        <v>590</v>
+      </c>
+      <c r="S467" t="s">
         <v>572</v>
       </c>
-      <c r="T467" t="s">
+      <c r="U467" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>23</v>
       </c>
@@ -29825,13 +31234,16 @@
         <v>570</v>
       </c>
       <c r="R468" t="s">
+        <v>590</v>
+      </c>
+      <c r="S468" t="s">
         <v>571</v>
       </c>
-      <c r="S468" t="s">
+      <c r="T468" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -29884,13 +31296,16 @@
         <v>569</v>
       </c>
       <c r="R469" t="s">
+        <v>589</v>
+      </c>
+      <c r="S469" t="s">
         <v>571</v>
       </c>
-      <c r="S469" t="s">
+      <c r="T469" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>25</v>
       </c>
@@ -29943,13 +31358,16 @@
         <v>569</v>
       </c>
       <c r="R470" t="s">
+        <v>590</v>
+      </c>
+      <c r="S470" t="s">
         <v>572</v>
       </c>
-      <c r="T470" t="s">
+      <c r="U470" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>26</v>
       </c>
@@ -30002,13 +31420,16 @@
         <v>569</v>
       </c>
       <c r="R471" t="s">
+        <v>589</v>
+      </c>
+      <c r="S471" t="s">
         <v>572</v>
       </c>
-      <c r="T471" t="s">
+      <c r="U471" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>27</v>
       </c>
@@ -30061,13 +31482,16 @@
         <v>570</v>
       </c>
       <c r="R472" t="s">
+        <v>590</v>
+      </c>
+      <c r="S472" t="s">
         <v>572</v>
       </c>
-      <c r="T472" t="s">
+      <c r="U472" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>28</v>
       </c>
@@ -30120,13 +31544,16 @@
         <v>569</v>
       </c>
       <c r="R473" t="s">
+        <v>590</v>
+      </c>
+      <c r="S473" t="s">
         <v>572</v>
       </c>
-      <c r="T473" t="s">
+      <c r="U473" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>29</v>
       </c>
@@ -30179,13 +31606,16 @@
         <v>570</v>
       </c>
       <c r="R474" t="s">
+        <v>590</v>
+      </c>
+      <c r="S474" t="s">
         <v>572</v>
       </c>
-      <c r="T474" t="s">
+      <c r="U474" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>30</v>
       </c>
@@ -30238,13 +31668,16 @@
         <v>569</v>
       </c>
       <c r="R475" t="s">
+        <v>589</v>
+      </c>
+      <c r="S475" t="s">
         <v>572</v>
       </c>
-      <c r="T475" t="s">
+      <c r="U475" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>31</v>
       </c>
@@ -30297,13 +31730,16 @@
         <v>569</v>
       </c>
       <c r="R476" t="s">
+        <v>589</v>
+      </c>
+      <c r="S476" t="s">
         <v>571</v>
       </c>
-      <c r="S476" t="s">
+      <c r="T476" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>32</v>
       </c>
@@ -30356,13 +31792,16 @@
         <v>569</v>
       </c>
       <c r="R477" t="s">
+        <v>590</v>
+      </c>
+      <c r="S477" t="s">
         <v>572</v>
       </c>
-      <c r="T477" t="s">
+      <c r="U477" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>33</v>
       </c>
@@ -30415,13 +31854,16 @@
         <v>570</v>
       </c>
       <c r="R478" t="s">
+        <v>590</v>
+      </c>
+      <c r="S478" t="s">
         <v>572</v>
       </c>
-      <c r="T478" t="s">
+      <c r="U478" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>34</v>
       </c>
@@ -30474,13 +31916,16 @@
         <v>570</v>
       </c>
       <c r="R479" t="s">
+        <v>590</v>
+      </c>
+      <c r="S479" t="s">
         <v>572</v>
       </c>
-      <c r="T479" t="s">
+      <c r="U479" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>35</v>
       </c>
@@ -30533,13 +31978,16 @@
         <v>569</v>
       </c>
       <c r="R480" t="s">
+        <v>590</v>
+      </c>
+      <c r="S480" t="s">
         <v>571</v>
       </c>
-      <c r="S480" t="s">
+      <c r="T480" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>36</v>
       </c>
@@ -30592,13 +32040,16 @@
         <v>569</v>
       </c>
       <c r="R481" t="s">
+        <v>589</v>
+      </c>
+      <c r="S481" t="s">
         <v>572</v>
       </c>
-      <c r="T481" t="s">
+      <c r="U481" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>17</v>
       </c>
@@ -30651,13 +32102,16 @@
         <v>569</v>
       </c>
       <c r="R482" t="s">
+        <v>590</v>
+      </c>
+      <c r="S482" t="s">
         <v>571</v>
       </c>
-      <c r="S482" t="s">
+      <c r="T482" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>18</v>
       </c>
@@ -30710,13 +32164,16 @@
         <v>569</v>
       </c>
       <c r="R483" t="s">
+        <v>589</v>
+      </c>
+      <c r="S483" t="s">
         <v>572</v>
       </c>
-      <c r="T483" t="s">
+      <c r="U483" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>19</v>
       </c>
@@ -30769,13 +32226,16 @@
         <v>570</v>
       </c>
       <c r="R484" t="s">
+        <v>590</v>
+      </c>
+      <c r="S484" t="s">
         <v>572</v>
       </c>
-      <c r="T484" t="s">
+      <c r="U484" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>20</v>
       </c>
@@ -30828,13 +32288,16 @@
         <v>569</v>
       </c>
       <c r="R485" t="s">
+        <v>589</v>
+      </c>
+      <c r="S485" t="s">
         <v>572</v>
       </c>
-      <c r="T485" t="s">
+      <c r="U485" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -30887,13 +32350,16 @@
         <v>569</v>
       </c>
       <c r="R486" t="s">
+        <v>589</v>
+      </c>
+      <c r="S486" t="s">
         <v>572</v>
       </c>
-      <c r="T486" t="s">
+      <c r="U486" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>22</v>
       </c>
@@ -30946,13 +32412,16 @@
         <v>569</v>
       </c>
       <c r="R487" t="s">
+        <v>589</v>
+      </c>
+      <c r="S487" t="s">
         <v>571</v>
       </c>
-      <c r="S487" t="s">
+      <c r="T487" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>23</v>
       </c>
@@ -31005,13 +32474,16 @@
         <v>569</v>
       </c>
       <c r="R488" t="s">
+        <v>589</v>
+      </c>
+      <c r="S488" t="s">
         <v>572</v>
       </c>
-      <c r="T488" t="s">
+      <c r="U488" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>24</v>
       </c>
@@ -31064,13 +32536,16 @@
         <v>569</v>
       </c>
       <c r="R489" t="s">
+        <v>590</v>
+      </c>
+      <c r="S489" t="s">
         <v>572</v>
       </c>
-      <c r="T489" t="s">
+      <c r="U489" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>25</v>
       </c>
@@ -31123,13 +32598,16 @@
         <v>569</v>
       </c>
       <c r="R490" t="s">
+        <v>589</v>
+      </c>
+      <c r="S490" t="s">
         <v>572</v>
       </c>
-      <c r="T490" t="s">
+      <c r="U490" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>26</v>
       </c>
@@ -31182,13 +32660,16 @@
         <v>569</v>
       </c>
       <c r="R491" t="s">
+        <v>589</v>
+      </c>
+      <c r="S491" t="s">
         <v>572</v>
       </c>
-      <c r="T491" t="s">
+      <c r="U491" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>27</v>
       </c>
@@ -31241,13 +32722,16 @@
         <v>569</v>
       </c>
       <c r="R492" t="s">
+        <v>589</v>
+      </c>
+      <c r="S492" t="s">
         <v>571</v>
       </c>
-      <c r="S492" t="s">
+      <c r="T492" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>28</v>
       </c>
@@ -31300,13 +32784,16 @@
         <v>570</v>
       </c>
       <c r="R493" t="s">
+        <v>590</v>
+      </c>
+      <c r="S493" t="s">
         <v>572</v>
       </c>
-      <c r="T493" t="s">
+      <c r="U493" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>29</v>
       </c>
@@ -31359,13 +32846,16 @@
         <v>570</v>
       </c>
       <c r="R494" t="s">
+        <v>589</v>
+      </c>
+      <c r="S494" t="s">
         <v>571</v>
       </c>
-      <c r="S494" t="s">
+      <c r="T494" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -31418,13 +32908,16 @@
         <v>570</v>
       </c>
       <c r="R495" t="s">
+        <v>590</v>
+      </c>
+      <c r="S495" t="s">
         <v>572</v>
       </c>
-      <c r="T495" t="s">
+      <c r="U495" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>31</v>
       </c>
@@ -31477,13 +32970,16 @@
         <v>569</v>
       </c>
       <c r="R496" t="s">
+        <v>590</v>
+      </c>
+      <c r="S496" t="s">
         <v>571</v>
       </c>
-      <c r="S496" t="s">
+      <c r="T496" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>32</v>
       </c>
@@ -31536,13 +33032,16 @@
         <v>569</v>
       </c>
       <c r="R497" t="s">
+        <v>589</v>
+      </c>
+      <c r="S497" t="s">
         <v>571</v>
       </c>
-      <c r="S497" t="s">
+      <c r="T497" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>33</v>
       </c>
@@ -31595,13 +33094,16 @@
         <v>569</v>
       </c>
       <c r="R498" t="s">
+        <v>589</v>
+      </c>
+      <c r="S498" t="s">
         <v>572</v>
       </c>
-      <c r="T498" t="s">
+      <c r="U498" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>34</v>
       </c>
@@ -31654,13 +33156,16 @@
         <v>570</v>
       </c>
       <c r="R499" t="s">
+        <v>589</v>
+      </c>
+      <c r="S499" t="s">
         <v>571</v>
       </c>
-      <c r="S499" t="s">
+      <c r="T499" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>35</v>
       </c>
@@ -31713,13 +33218,16 @@
         <v>570</v>
       </c>
       <c r="R500" t="s">
+        <v>590</v>
+      </c>
+      <c r="S500" t="s">
         <v>572</v>
       </c>
-      <c r="T500" t="s">
+      <c r="U500" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>36</v>
       </c>
@@ -31772,9 +33280,12 @@
         <v>569</v>
       </c>
       <c r="R501" t="s">
+        <v>590</v>
+      </c>
+      <c r="S501" t="s">
         <v>571</v>
       </c>
-      <c r="S501" t="s">
+      <c r="T501" t="s">
         <v>577</v>
       </c>
     </row>
